--- a/Lab 2 Data/Lab 2 Part B.3 Fast.xlsx
+++ b/Lab 2 Data/Lab 2 Part B.3 Fast.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyleav20.stu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a577a978c12779e9/Documents/Repos/MECH 420 scripts/Lab 2 Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_9AAE5698B249DE5AD94F10AFEA18FDB820DD6D9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A026445-4A9E-48B4-8D59-9D8FBEBA0E23}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##.####"/>
   </numFmts>
@@ -407,11 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A970" workbookViewId="0">
+      <selection activeCell="B999" sqref="B999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,7 +2182,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
@@ -2195,7 +2196,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -2209,7 +2210,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -2223,7 +2224,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>0</v>
+        <v>2.5580877419354802E-3</v>
       </c>
       <c r="B130" s="1">
         <v>1</v>
@@ -2237,7 +2238,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>0</v>
+        <v>2.57806500768049E-3</v>
       </c>
       <c r="B131" s="1">
         <v>1</v>
@@ -2251,7 +2252,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>0</v>
+        <v>2.5980422734255002E-3</v>
       </c>
       <c r="B132" s="1">
         <v>1</v>
@@ -2265,7 +2266,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>0</v>
+        <v>2.6180195391705E-3</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -2279,7 +2280,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>0</v>
+        <v>2.6379968049155102E-3</v>
       </c>
       <c r="B134" s="1">
         <v>1</v>
@@ -2293,7 +2294,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>0</v>
+        <v>2.65797407066052E-3</v>
       </c>
       <c r="B135" s="1">
         <v>1</v>
@@ -2307,7 +2308,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>0</v>
+        <v>2.6779513364055302E-3</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
@@ -2321,7 +2322,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>0</v>
+        <v>2.69792860215053E-3</v>
       </c>
       <c r="B137" s="1">
         <v>1</v>
@@ -2335,7 +2336,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>0</v>
+        <v>2.7179058678955398E-3</v>
       </c>
       <c r="B138" s="1">
         <v>1</v>
@@ -2349,7 +2350,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>0</v>
+        <v>2.73788313364055E-3</v>
       </c>
       <c r="B139" s="1">
         <v>1</v>
@@ -2363,7 +2364,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>0</v>
+        <v>2.7578603993855602E-3</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
@@ -2377,7 +2378,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>0</v>
+        <v>2.77783766513056E-3</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -2391,7 +2392,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>0</v>
+        <v>2.7978149308755698E-3</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -2405,7 +2406,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>0</v>
+        <v>2.81779219662058E-3</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -2419,7 +2420,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>0</v>
+        <v>2.8377694623655898E-3</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -2433,7 +2434,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>0</v>
+        <v>2.8577467281106E-3</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
@@ -2447,7 +2448,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>0</v>
+        <v>2.8777239938555998E-3</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -2461,7 +2462,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>0</v>
+        <v>2.89770125960061E-3</v>
       </c>
       <c r="B147" s="1">
         <v>0</v>
@@ -2475,7 +2476,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>0</v>
+        <v>2.9176785253456198E-3</v>
       </c>
       <c r="B148" s="1">
         <v>0</v>
@@ -2489,7 +2490,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>0</v>
+        <v>2.93765579109063E-3</v>
       </c>
       <c r="B149" s="1">
         <v>0</v>
@@ -2503,7 +2504,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>0</v>
+        <v>2.9576330568356298E-3</v>
       </c>
       <c r="B150" s="1">
         <v>0</v>
@@ -2517,7 +2518,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>0</v>
+        <v>2.97761032258064E-3</v>
       </c>
       <c r="B151" s="1">
         <v>0</v>
@@ -2531,7 +2532,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>0</v>
+        <v>2.9975875883256498E-3</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -2545,7 +2546,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>0</v>
+        <v>3.01756485407066E-3</v>
       </c>
       <c r="B153" s="1">
         <v>0</v>
@@ -2559,7 +2560,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>0</v>
+        <v>3.0375421198156598E-3</v>
       </c>
       <c r="B154" s="1">
         <v>0</v>
@@ -2573,7 +2574,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>0</v>
+        <v>3.0575193855606701E-3</v>
       </c>
       <c r="B155" s="1">
         <v>1</v>
@@ -2587,7 +2588,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>0</v>
+        <v>3.0774966513056798E-3</v>
       </c>
       <c r="B156" s="1">
         <v>1</v>
@@ -2601,7 +2602,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>0</v>
+        <v>3.0974739170506901E-3</v>
       </c>
       <c r="B157" s="1">
         <v>1</v>
@@ -2615,7 +2616,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>0</v>
+        <v>3.1174511827956998E-3</v>
       </c>
       <c r="B158" s="1">
         <v>1</v>
@@ -2629,7 +2630,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>0</v>
+        <v>3.1374284485407001E-3</v>
       </c>
       <c r="B159" s="1">
         <v>1</v>
@@ -2643,7 +2644,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>0</v>
+        <v>3.1574057142857099E-3</v>
       </c>
       <c r="B160" s="1">
         <v>1</v>
@@ -2657,7 +2658,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>0</v>
+        <v>3.1773829800307201E-3</v>
       </c>
       <c r="B161" s="1">
         <v>1</v>
@@ -2671,7 +2672,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>0</v>
+        <v>3.1973602457757298E-3</v>
       </c>
       <c r="B162" s="1">
         <v>1</v>
@@ -2685,7 +2686,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>0</v>
+        <v>3.2173375115207301E-3</v>
       </c>
       <c r="B163" s="1">
         <v>1</v>
@@ -2699,7 +2700,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>0</v>
+        <v>3.2373147772657399E-3</v>
       </c>
       <c r="B164" s="1">
         <v>1</v>
@@ -2713,7 +2714,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>0</v>
+        <v>3.2572920430107501E-3</v>
       </c>
       <c r="B165" s="1">
         <v>1</v>
@@ -2727,7 +2728,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>0</v>
+        <v>3.2772693087557599E-3</v>
       </c>
       <c r="B166" s="1">
         <v>1</v>
@@ -2741,7 +2742,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>0</v>
+        <v>3.2972465745007601E-3</v>
       </c>
       <c r="B167" s="1">
         <v>1</v>
@@ -2755,7 +2756,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>0</v>
+        <v>3.3172238402457699E-3</v>
       </c>
       <c r="B168" s="1">
         <v>1</v>
@@ -2769,7 +2770,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>0</v>
+        <v>3.3372011059907801E-3</v>
       </c>
       <c r="B169" s="1">
         <v>0</v>
@@ -2783,7 +2784,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>0</v>
+        <v>3.3571783717357899E-3</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -2797,7 +2798,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>0</v>
+        <v>3.3771556374808001E-3</v>
       </c>
       <c r="B171" s="1">
         <v>0</v>
@@ -2811,7 +2812,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>0</v>
+        <v>3.3971329032257999E-3</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -2825,7 +2826,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>0</v>
+        <v>3.4171101689708101E-3</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
@@ -2839,7 +2840,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>0</v>
+        <v>3.4370874347158199E-3</v>
       </c>
       <c r="B174" s="1">
         <v>0</v>
@@ -2853,7 +2854,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>0</v>
+        <v>3.4570647004608301E-3</v>
       </c>
       <c r="B175" s="1">
         <v>0</v>
@@ -2867,7 +2868,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>0</v>
+        <v>3.4770419662058299E-3</v>
       </c>
       <c r="B176" s="1">
         <v>0</v>
@@ -2881,7 +2882,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>0</v>
+        <v>3.4970192319508401E-3</v>
       </c>
       <c r="B177" s="1">
         <v>0</v>
@@ -2895,7 +2896,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>0</v>
+        <v>3.5169964976958499E-3</v>
       </c>
       <c r="B178" s="1">
         <v>0</v>
@@ -2909,7 +2910,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>0</v>
+        <v>3.5369737634408601E-3</v>
       </c>
       <c r="B179" s="1">
         <v>0</v>
@@ -2923,7 +2924,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>0</v>
+        <v>3.5569510291858599E-3</v>
       </c>
       <c r="B180" s="1">
         <v>0</v>
@@ -2937,7 +2938,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>0</v>
+        <v>3.5769282949308701E-3</v>
       </c>
       <c r="B181" s="1">
         <v>0</v>
@@ -2951,7 +2952,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>0</v>
+        <v>3.5969055606758799E-3</v>
       </c>
       <c r="B182" s="1">
         <v>0</v>
@@ -2965,7 +2966,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>0</v>
+        <v>3.6168828264208901E-3</v>
       </c>
       <c r="B183" s="1">
         <v>1</v>
@@ -2979,7 +2980,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>0</v>
+        <v>3.6368600921658999E-3</v>
       </c>
       <c r="B184" s="1">
         <v>1</v>
@@ -2993,7 +2994,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>0</v>
+        <v>3.6568373579109002E-3</v>
       </c>
       <c r="B185" s="1">
         <v>1</v>
@@ -3007,7 +3008,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>0</v>
+        <v>3.6768146236559099E-3</v>
       </c>
       <c r="B186" s="1">
         <v>1</v>
@@ -3021,7 +3022,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>0</v>
+        <v>3.6967918894009202E-3</v>
       </c>
       <c r="B187" s="1">
         <v>1</v>
@@ -3035,7 +3036,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>0</v>
+        <v>3.7167691551459299E-3</v>
       </c>
       <c r="B188" s="1">
         <v>1</v>
@@ -3049,7 +3050,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>0</v>
+        <v>3.7367464208909302E-3</v>
       </c>
       <c r="B189" s="1">
         <v>1</v>
@@ -3063,7 +3064,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>0</v>
+        <v>3.75672368663594E-3</v>
       </c>
       <c r="B190" s="1">
         <v>1</v>
@@ -3077,7 +3078,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>0</v>
+        <v>3.7767009523809502E-3</v>
       </c>
       <c r="B191" s="1">
         <v>1</v>
@@ -3091,7 +3092,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>0</v>
+        <v>3.7966782181259599E-3</v>
       </c>
       <c r="B192" s="1">
         <v>1</v>
@@ -3105,7 +3106,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>0</v>
+        <v>3.8166554838709602E-3</v>
       </c>
       <c r="B193" s="1">
         <v>1</v>
@@ -3119,7 +3120,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>0</v>
+        <v>3.83663274961597E-3</v>
       </c>
       <c r="B194" s="1">
         <v>1</v>
@@ -3133,7 +3134,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>0</v>
+        <v>3.8566100153609802E-3</v>
       </c>
       <c r="B195" s="1">
         <v>1</v>
@@ -3147,7 +3148,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>0</v>
+        <v>3.87658728110599E-3</v>
       </c>
       <c r="B196" s="1">
         <v>1</v>
@@ -3161,7 +3162,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>0</v>
+        <v>3.8965645468510002E-3</v>
       </c>
       <c r="B197" s="1">
         <v>1</v>
@@ -3175,7 +3176,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>0</v>
+        <v>3.916541812596E-3</v>
       </c>
       <c r="B198" s="1">
         <v>1</v>
@@ -3189,7 +3190,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>0</v>
+        <v>3.9365190783410102E-3</v>
       </c>
       <c r="B199" s="1">
         <v>1</v>
@@ -3203,7 +3204,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>0</v>
+        <v>3.9564963440860204E-3</v>
       </c>
       <c r="B200" s="1">
         <v>1</v>
@@ -3217,7 +3218,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>0</v>
+        <v>3.9764736098310298E-3</v>
       </c>
       <c r="B201" s="1">
         <v>0</v>
@@ -3231,7 +3232,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>0</v>
+        <v>3.9964508755760304E-3</v>
       </c>
       <c r="B202" s="1">
         <v>0</v>
@@ -3245,7 +3246,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>0</v>
+        <v>4.0164281413210398E-3</v>
       </c>
       <c r="B203" s="1">
         <v>0</v>
@@ -3259,7 +3260,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>0</v>
+        <v>4.03640540706605E-3</v>
       </c>
       <c r="B204" s="1">
         <v>0</v>
@@ -3273,7 +3274,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>0</v>
+        <v>4.0563826728110602E-3</v>
       </c>
       <c r="B205" s="1">
         <v>0</v>
@@ -3287,7 +3288,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>0</v>
+        <v>4.07635993855606E-3</v>
       </c>
       <c r="B206" s="1">
         <v>0</v>
@@ -3301,7 +3302,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>0</v>
+        <v>4.0963372043010702E-3</v>
       </c>
       <c r="B207" s="1">
         <v>0</v>
@@ -3315,7 +3316,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>0</v>
+        <v>4.1163144700460796E-3</v>
       </c>
       <c r="B208" s="1">
         <v>0</v>
@@ -3329,7 +3330,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>0</v>
+        <v>4.1362917357910898E-3</v>
       </c>
       <c r="B209" s="1">
         <v>0</v>
@@ -3343,7 +3344,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>0</v>
+        <v>4.1562690015361E-3</v>
       </c>
       <c r="B210" s="1">
         <v>0</v>
@@ -3357,7 +3358,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>0</v>
+        <v>4.1762462672810998E-3</v>
       </c>
       <c r="B211" s="1">
         <v>0</v>
@@ -3371,7 +3372,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>0</v>
+        <v>4.19622353302611E-3</v>
       </c>
       <c r="B212" s="1">
         <v>0</v>
@@ -3385,7 +3386,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>0</v>
+        <v>4.2162007987711202E-3</v>
       </c>
       <c r="B213" s="1">
         <v>0</v>
@@ -3399,7 +3400,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>0</v>
+        <v>4.2361780645161296E-3</v>
       </c>
       <c r="B214" s="1">
         <v>1</v>
@@ -3413,7 +3414,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>0</v>
+        <v>4.2561553302611303E-3</v>
       </c>
       <c r="B215" s="1">
         <v>1</v>
@@ -3427,7 +3428,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>0</v>
+        <v>4.2761325960061396E-3</v>
       </c>
       <c r="B216" s="1">
         <v>1</v>
@@ -3441,7 +3442,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>0</v>
+        <v>4.2961098617511498E-3</v>
       </c>
       <c r="B217" s="1">
         <v>1</v>
@@ -3455,7 +3456,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>0</v>
+        <v>4.31608712749616E-3</v>
       </c>
       <c r="B218" s="1">
         <v>1</v>
@@ -3469,7 +3470,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>0</v>
+        <v>4.3360643932411598E-3</v>
       </c>
       <c r="B219" s="1">
         <v>1</v>
@@ -3483,7 +3484,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>0</v>
+        <v>4.3560416589861701E-3</v>
       </c>
       <c r="B220" s="1">
         <v>1</v>
@@ -3497,7 +3498,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>0</v>
+        <v>4.3760189247311803E-3</v>
       </c>
       <c r="B221" s="1">
         <v>1</v>
@@ -3511,7 +3512,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>0</v>
+        <v>4.3959961904761896E-3</v>
       </c>
       <c r="B222" s="1">
         <v>1</v>
@@ -3525,7 +3526,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>0</v>
+        <v>4.4159734562211998E-3</v>
       </c>
       <c r="B223" s="1">
         <v>1</v>
@@ -3539,7 +3540,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>0</v>
+        <v>4.4359507219661996E-3</v>
       </c>
       <c r="B224" s="1">
         <v>1</v>
@@ -3553,7 +3554,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>0</v>
+        <v>4.4559279877112098E-3</v>
       </c>
       <c r="B225" s="1">
         <v>1</v>
@@ -3567,7 +3568,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>0</v>
+        <v>4.4759052534562201E-3</v>
       </c>
       <c r="B226" s="1">
         <v>1</v>
@@ -3581,7 +3582,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>0</v>
+        <v>4.4958825192012303E-3</v>
       </c>
       <c r="B227" s="1">
         <v>1</v>
@@ -3595,7 +3596,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>0</v>
+        <v>4.5158597849462301E-3</v>
       </c>
       <c r="B228" s="1">
         <v>0</v>
@@ -3609,7 +3610,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>0</v>
+        <v>4.5358370506912403E-3</v>
       </c>
       <c r="B229" s="1">
         <v>0</v>
@@ -3623,7 +3624,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>0</v>
+        <v>4.5558143164362496E-3</v>
       </c>
       <c r="B230" s="1">
         <v>0</v>
@@ -3637,7 +3638,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>0</v>
+        <v>4.5757915821812599E-3</v>
       </c>
       <c r="B231" s="1">
         <v>0</v>
@@ -3651,7 +3652,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>0</v>
+        <v>4.5957688479262597E-3</v>
       </c>
       <c r="B232" s="1">
         <v>0</v>
@@ -3665,7 +3666,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>0</v>
+        <v>4.6157461136712699E-3</v>
       </c>
       <c r="B233" s="1">
         <v>0</v>
@@ -3679,7 +3680,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>0</v>
+        <v>4.6357233794162801E-3</v>
       </c>
       <c r="B234" s="1">
         <v>0</v>
@@ -3693,7 +3694,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>0</v>
+        <v>4.6557006451612903E-3</v>
       </c>
       <c r="B235" s="1">
         <v>0</v>
@@ -3707,7 +3708,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>0</v>
+        <v>4.6756779109062901E-3</v>
       </c>
       <c r="B236" s="1">
         <v>0</v>
@@ -3721,7 +3722,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>0</v>
+        <v>4.6956551766513003E-3</v>
       </c>
       <c r="B237" s="1">
         <v>0</v>
@@ -3735,7 +3736,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>0</v>
+        <v>4.7156324423963097E-3</v>
       </c>
       <c r="B238" s="1">
         <v>0</v>
@@ -3749,7 +3750,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>0</v>
+        <v>4.7356097081413199E-3</v>
       </c>
       <c r="B239" s="1">
         <v>0</v>
@@ -3763,7 +3764,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>0</v>
+        <v>4.7555869738863301E-3</v>
       </c>
       <c r="B240" s="1">
         <v>0</v>
@@ -3777,7 +3778,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>0</v>
+        <v>4.7755642396313299E-3</v>
       </c>
       <c r="B241" s="1">
         <v>0</v>
@@ -3791,7 +3792,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>0</v>
+        <v>4.7955415053763401E-3</v>
       </c>
       <c r="B242" s="1">
         <v>0</v>
@@ -3805,7 +3806,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>0</v>
+        <v>4.8155187711213503E-3</v>
       </c>
       <c r="B243" s="1">
         <v>0</v>
@@ -3819,7 +3820,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>0</v>
+        <v>4.8354960368663597E-3</v>
       </c>
       <c r="B244" s="1">
         <v>0</v>
@@ -3833,7 +3834,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>0</v>
+        <v>4.8554733026113604E-3</v>
       </c>
       <c r="B245" s="1">
         <v>0</v>
@@ -3847,7 +3848,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>0</v>
+        <v>4.8754505683563697E-3</v>
       </c>
       <c r="B246" s="1">
         <v>1</v>
@@ -3861,7 +3862,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>0</v>
+        <v>4.8954278341013799E-3</v>
       </c>
       <c r="B247" s="1">
         <v>1</v>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>0</v>
+        <v>4.9154050998463901E-3</v>
       </c>
       <c r="B248" s="1">
         <v>1</v>
@@ -3889,7 +3890,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>0</v>
+        <v>4.9353823655913899E-3</v>
       </c>
       <c r="B249" s="1">
         <v>1</v>
@@ -3903,7 +3904,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>0</v>
+        <v>4.9553596313364002E-3</v>
       </c>
       <c r="B250" s="1">
         <v>1</v>
@@ -3917,7 +3918,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>0</v>
+        <v>4.9753368970814104E-3</v>
       </c>
       <c r="B251" s="1">
         <v>1</v>
@@ -3931,7 +3932,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>0</v>
+        <v>4.9953141628264197E-3</v>
       </c>
       <c r="B252" s="1">
         <v>1</v>
@@ -3945,7 +3946,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>0</v>
+        <v>5.0152914285714299E-3</v>
       </c>
       <c r="B253" s="1">
         <v>1</v>
@@ -3959,7 +3960,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>0</v>
+        <v>5.0352686943164297E-3</v>
       </c>
       <c r="B254" s="1">
         <v>1</v>
@@ -3973,7 +3974,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>0</v>
+        <v>5.0552459600614399E-3</v>
       </c>
       <c r="B255" s="1">
         <v>1</v>
@@ -3987,7 +3988,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>0</v>
+        <v>5.0752232258064502E-3</v>
       </c>
       <c r="B256" s="1">
         <v>1</v>
@@ -4001,7 +4002,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>0</v>
+        <v>5.0952004915514604E-3</v>
       </c>
       <c r="B257" s="1">
         <v>1</v>
@@ -4015,7 +4016,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>0</v>
+        <v>5.1151777572964602E-3</v>
       </c>
       <c r="B258" s="1">
         <v>1</v>
@@ -4029,7 +4030,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>0</v>
+        <v>5.1351550230414704E-3</v>
       </c>
       <c r="B259" s="1">
         <v>1</v>
@@ -4043,7 +4044,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>0</v>
+        <v>5.1551322887864797E-3</v>
       </c>
       <c r="B260" s="1">
         <v>1</v>
@@ -4057,7 +4058,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>0</v>
+        <v>5.17510955453149E-3</v>
       </c>
       <c r="B261" s="1">
         <v>1</v>
@@ -4071,7 +4072,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>0</v>
+        <v>5.1950868202764898E-3</v>
       </c>
       <c r="B262" s="1">
         <v>0</v>
@@ -4085,7 +4086,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>0</v>
+        <v>5.2150640860215E-3</v>
       </c>
       <c r="B263" s="1">
         <v>0</v>
@@ -4099,7 +4100,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>0</v>
+        <v>5.2350413517665102E-3</v>
       </c>
       <c r="B264" s="1">
         <v>0</v>
@@ -4113,7 +4114,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>0</v>
+        <v>5.2550186175115204E-3</v>
       </c>
       <c r="B265" s="1">
         <v>0</v>
@@ -4127,7 +4128,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>0</v>
+        <v>5.2749958832565202E-3</v>
       </c>
       <c r="B266" s="1">
         <v>0</v>
@@ -4141,7 +4142,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>0</v>
+        <v>5.2949731490015304E-3</v>
       </c>
       <c r="B267" s="1">
         <v>0</v>
@@ -4155,7 +4156,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>0</v>
+        <v>5.3149504147465398E-3</v>
       </c>
       <c r="B268" s="1">
         <v>0</v>
@@ -4169,7 +4170,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>0</v>
+        <v>5.33492768049155E-3</v>
       </c>
       <c r="B269" s="1">
         <v>0</v>
@@ -4183,7 +4184,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>0</v>
+        <v>5.3549049462365602E-3</v>
       </c>
       <c r="B270" s="1">
         <v>0</v>
@@ -4197,7 +4198,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>0</v>
+        <v>5.37488221198156E-3</v>
       </c>
       <c r="B271" s="1">
         <v>0</v>
@@ -4211,7 +4212,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>0</v>
+        <v>5.3948594777265702E-3</v>
       </c>
       <c r="B272" s="1">
         <v>0</v>
@@ -4225,7 +4226,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>0</v>
+        <v>5.4148367434715796E-3</v>
       </c>
       <c r="B273" s="1">
         <v>1</v>
@@ -4239,7 +4240,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>0</v>
+        <v>5.4348140092165898E-3</v>
       </c>
       <c r="B274" s="1">
         <v>1</v>
@@ -4253,7 +4254,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>0</v>
+        <v>5.4547912749615896E-3</v>
       </c>
       <c r="B275" s="1">
         <v>1</v>
@@ -4267,7 +4268,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>0</v>
+        <v>5.4747685407065998E-3</v>
       </c>
       <c r="B276" s="1">
         <v>1</v>
@@ -4281,7 +4282,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>0</v>
+        <v>5.49474580645161E-3</v>
       </c>
       <c r="B277" s="1">
         <v>1</v>
@@ -4295,7 +4296,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>0</v>
+        <v>5.5147230721966202E-3</v>
       </c>
       <c r="B278" s="1">
         <v>1</v>
@@ -4309,7 +4310,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>0</v>
+        <v>5.53470033794162E-3</v>
       </c>
       <c r="B279" s="1">
         <v>1</v>
@@ -4323,7 +4324,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>0</v>
+        <v>5.5546776036866303E-3</v>
       </c>
       <c r="B280" s="1">
         <v>1</v>
@@ -4337,7 +4338,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>0</v>
+        <v>5.5746548694316396E-3</v>
       </c>
       <c r="B281" s="1">
         <v>1</v>
@@ -4351,7 +4352,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>0</v>
+        <v>5.5946321351766498E-3</v>
       </c>
       <c r="B282" s="1">
         <v>1</v>
@@ -4365,7 +4366,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>0</v>
+        <v>5.61460940092166E-3</v>
       </c>
       <c r="B283" s="1">
         <v>1</v>
@@ -4379,7 +4380,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>0</v>
+        <v>5.6345866666666598E-3</v>
       </c>
       <c r="B284" s="1">
         <v>0</v>
@@ -4393,7 +4394,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>0</v>
+        <v>5.65456393241167E-3</v>
       </c>
       <c r="B285" s="1">
         <v>0</v>
@@ -4407,7 +4408,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>0</v>
+        <v>5.6745411981566803E-3</v>
       </c>
       <c r="B286" s="1">
         <v>0</v>
@@ -4421,7 +4422,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>0</v>
+        <v>5.6945184639016896E-3</v>
       </c>
       <c r="B287" s="1">
         <v>0</v>
@@ -4435,7 +4436,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>0</v>
+        <v>5.7144957296466903E-3</v>
       </c>
       <c r="B288" s="1">
         <v>0</v>
@@ -4449,7 +4450,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>0</v>
+        <v>5.7344729953916996E-3</v>
       </c>
       <c r="B289" s="1">
         <v>0</v>
@@ -4463,7 +4464,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>0</v>
+        <v>5.7544502611367098E-3</v>
       </c>
       <c r="B290" s="1">
         <v>0</v>
@@ -4477,7 +4478,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>0</v>
+        <v>5.7744275268817201E-3</v>
       </c>
       <c r="B291" s="1">
         <v>0</v>
@@ -4491,7 +4492,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>0</v>
+        <v>5.7944047926267303E-3</v>
       </c>
       <c r="B292" s="1">
         <v>0</v>
@@ -4505,7 +4506,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>0</v>
+        <v>5.8143820583717301E-3</v>
       </c>
       <c r="B293" s="1">
         <v>0</v>
@@ -4519,7 +4520,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>0</v>
+        <v>5.8343593241167403E-3</v>
       </c>
       <c r="B294" s="1">
         <v>0</v>
@@ -4533,7 +4534,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>0</v>
+        <v>5.8543365898617496E-3</v>
       </c>
       <c r="B295" s="1">
         <v>0</v>
@@ -4547,7 +4548,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>0</v>
+        <v>5.8743138556067599E-3</v>
       </c>
       <c r="B296" s="1">
         <v>1</v>
@@ -4561,7 +4562,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>0</v>
+        <v>5.8942911213517597E-3</v>
       </c>
       <c r="B297" s="1">
         <v>1</v>
@@ -4575,7 +4576,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>0</v>
+        <v>5.9142683870967699E-3</v>
       </c>
       <c r="B298" s="1">
         <v>1</v>
@@ -4589,7 +4590,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>0</v>
+        <v>5.9342456528417801E-3</v>
       </c>
       <c r="B299" s="1">
         <v>1</v>
@@ -4603,7 +4604,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>0</v>
+        <v>5.9542229185867903E-3</v>
       </c>
       <c r="B300" s="1">
         <v>1</v>
@@ -4617,7 +4618,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>0</v>
+        <v>5.9742001843317901E-3</v>
       </c>
       <c r="B301" s="1">
         <v>1</v>
@@ -4631,7 +4632,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>0</v>
+        <v>5.9941774500768003E-3</v>
       </c>
       <c r="B302" s="1">
         <v>1</v>
@@ -4645,7 +4646,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>0</v>
+        <v>6.0141547158218097E-3</v>
       </c>
       <c r="B303" s="1">
         <v>1</v>
@@ -4659,7 +4660,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>0</v>
+        <v>6.0341319815668199E-3</v>
       </c>
       <c r="B304" s="1">
         <v>1</v>
@@ -4673,7 +4674,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>0</v>
+        <v>6.0541092473118301E-3</v>
       </c>
       <c r="B305" s="1">
         <v>1</v>
@@ -4687,7 +4688,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>0</v>
+        <v>6.0740865130568299E-3</v>
       </c>
       <c r="B306" s="1">
         <v>1</v>
@@ -4701,7 +4702,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>0</v>
+        <v>6.0940637788018401E-3</v>
       </c>
       <c r="B307" s="1">
         <v>0</v>
@@ -4715,7 +4716,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>0</v>
+        <v>6.1140410445468503E-3</v>
       </c>
       <c r="B308" s="1">
         <v>0</v>
@@ -4729,7 +4730,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>0</v>
+        <v>6.1340183102918597E-3</v>
       </c>
       <c r="B309" s="1">
         <v>0</v>
@@ -4743,7 +4744,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>0</v>
+        <v>6.1539955760368604E-3</v>
       </c>
       <c r="B310" s="1">
         <v>0</v>
@@ -4757,7 +4758,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>0</v>
+        <v>6.1739728417818697E-3</v>
       </c>
       <c r="B311" s="1">
         <v>0</v>
@@ -4771,7 +4772,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>0</v>
+        <v>6.1939501075268799E-3</v>
       </c>
       <c r="B312" s="1">
         <v>0</v>
@@ -4785,7 +4786,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>0</v>
+        <v>6.2139273732718901E-3</v>
       </c>
       <c r="B313" s="1">
         <v>0</v>
@@ -4799,7 +4800,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>0</v>
+        <v>6.2339046390168899E-3</v>
       </c>
       <c r="B314" s="1">
         <v>0</v>
@@ -4813,7 +4814,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>0</v>
+        <v>6.2538819047619001E-3</v>
       </c>
       <c r="B315" s="1">
         <v>0</v>
@@ -4827,7 +4828,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>0</v>
+        <v>6.2738591705069104E-3</v>
       </c>
       <c r="B316" s="1">
         <v>0</v>
@@ -4841,7 +4842,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>0</v>
+        <v>6.2938364362519197E-3</v>
       </c>
       <c r="B317" s="1">
         <v>0</v>
@@ -4855,7 +4856,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>0</v>
+        <v>6.3138137019969299E-3</v>
       </c>
       <c r="B318" s="1">
         <v>1</v>
@@ -4869,7 +4870,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>0</v>
+        <v>6.3337909677419297E-3</v>
       </c>
       <c r="B319" s="1">
         <v>1</v>
@@ -4883,7 +4884,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>0</v>
+        <v>6.3537682334869399E-3</v>
       </c>
       <c r="B320" s="1">
         <v>1</v>
@@ -4897,7 +4898,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>0</v>
+        <v>6.3737454992319502E-3</v>
       </c>
       <c r="B321" s="1">
         <v>1</v>
@@ -4911,7 +4912,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>0</v>
+        <v>6.3937227649769604E-3</v>
       </c>
       <c r="B322" s="1">
         <v>1</v>
@@ -4925,7 +4926,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>0</v>
+        <v>6.4137000307219602E-3</v>
       </c>
       <c r="B323" s="1">
         <v>1</v>
@@ -4939,7 +4940,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>0</v>
+        <v>6.4336772964669704E-3</v>
       </c>
       <c r="B324" s="1">
         <v>1</v>
@@ -4953,7 +4954,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>0</v>
+        <v>6.4536545622119797E-3</v>
       </c>
       <c r="B325" s="1">
         <v>1</v>
@@ -4967,7 +4968,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>0</v>
+        <v>6.47363182795699E-3</v>
       </c>
       <c r="B326" s="1">
         <v>1</v>
@@ -4981,7 +4982,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>0</v>
+        <v>6.4936090937019898E-3</v>
       </c>
       <c r="B327" s="1">
         <v>1</v>
@@ -4995,7 +4996,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>0</v>
+        <v>6.513586359447E-3</v>
       </c>
       <c r="B328" s="1">
         <v>1</v>
@@ -5009,7 +5010,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>0</v>
+        <v>6.5335636251920102E-3</v>
       </c>
       <c r="B329" s="1">
         <v>1</v>
@@ -5023,7 +5024,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>0</v>
+        <v>6.5535408909370204E-3</v>
       </c>
       <c r="B330" s="1">
         <v>1</v>
@@ -5037,7 +5038,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>0</v>
+        <v>6.5735181566820202E-3</v>
       </c>
       <c r="B331" s="1">
         <v>1</v>
@@ -5051,7 +5052,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>0</v>
+        <v>6.5934954224270304E-3</v>
       </c>
       <c r="B332" s="1">
         <v>1</v>
@@ -5065,7 +5066,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>0</v>
+        <v>6.6134726881720398E-3</v>
       </c>
       <c r="B333" s="1">
         <v>1</v>
@@ -5079,7 +5080,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>0</v>
+        <v>6.63344995391705E-3</v>
       </c>
       <c r="B334" s="1">
         <v>1</v>
@@ -5093,7 +5094,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>0</v>
+        <v>6.6534272196620602E-3</v>
       </c>
       <c r="B335" s="1">
         <v>0</v>
@@ -5107,7 +5108,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>0</v>
+        <v>6.67340448540706E-3</v>
       </c>
       <c r="B336" s="1">
         <v>0</v>
@@ -5121,7 +5122,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>0</v>
+        <v>6.6933817511520702E-3</v>
       </c>
       <c r="B337" s="1">
         <v>0</v>
@@ -5135,7 +5136,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>0</v>
+        <v>6.7133590168970804E-3</v>
       </c>
       <c r="B338" s="1">
         <v>0</v>
@@ -5149,7 +5150,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>0</v>
+        <v>6.7333362826420898E-3</v>
       </c>
       <c r="B339" s="1">
         <v>0</v>
@@ -5163,7 +5164,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>0</v>
+        <v>6.7533135483870896E-3</v>
       </c>
       <c r="B340" s="1">
         <v>0</v>
@@ -5177,7 +5178,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>0</v>
+        <v>6.7732908141320998E-3</v>
       </c>
       <c r="B341" s="1">
         <v>0</v>
@@ -5191,7 +5192,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>0</v>
+        <v>6.79326807987711E-3</v>
       </c>
       <c r="B342" s="1">
         <v>0</v>
@@ -5205,7 +5206,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>0</v>
+        <v>6.8132453456221202E-3</v>
       </c>
       <c r="B343" s="1">
         <v>0</v>
@@ -5219,7 +5220,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>0</v>
+        <v>6.83322261136712E-3</v>
       </c>
       <c r="B344" s="1">
         <v>0</v>
@@ -5233,7 +5234,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>0</v>
+        <v>6.8531998771121302E-3</v>
       </c>
       <c r="B345" s="1">
         <v>0</v>
@@ -5247,7 +5248,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>0</v>
+        <v>6.8731771428571396E-3</v>
       </c>
       <c r="B346" s="1">
         <v>0</v>
@@ -5261,7 +5262,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>0</v>
+        <v>6.8931544086021498E-3</v>
       </c>
       <c r="B347" s="1">
         <v>0</v>
@@ -5275,7 +5276,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>0</v>
+        <v>6.91313167434716E-3</v>
       </c>
       <c r="B348" s="1">
         <v>0</v>
@@ -5289,7 +5290,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>0</v>
+        <v>6.9331089400921598E-3</v>
       </c>
       <c r="B349" s="1">
         <v>0</v>
@@ -5303,7 +5304,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>0</v>
+        <v>6.95308620583717E-3</v>
       </c>
       <c r="B350" s="1">
         <v>0</v>
@@ -5317,7 +5318,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>0</v>
+        <v>6.9730634715821803E-3</v>
       </c>
       <c r="B351" s="1">
         <v>0</v>
@@ -5331,7 +5332,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>0</v>
+        <v>6.9930407373271896E-3</v>
       </c>
       <c r="B352" s="1">
         <v>1</v>
@@ -5345,7 +5346,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>0</v>
+        <v>7.0130180030721903E-3</v>
       </c>
       <c r="B353" s="1">
         <v>1</v>
@@ -5359,7 +5360,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>0</v>
+        <v>7.0329952688171996E-3</v>
       </c>
       <c r="B354" s="1">
         <v>1</v>
@@ -5373,7 +5374,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>0</v>
+        <v>7.0529725345622098E-3</v>
       </c>
       <c r="B355" s="1">
         <v>1</v>
@@ -5387,7 +5388,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>0</v>
+        <v>7.0729498003072201E-3</v>
       </c>
       <c r="B356" s="1">
         <v>1</v>
@@ -5401,7 +5402,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>0</v>
+        <v>7.0929270660522199E-3</v>
       </c>
       <c r="B357" s="1">
         <v>1</v>
@@ -5415,7 +5416,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>0</v>
+        <v>7.1129043317972301E-3</v>
       </c>
       <c r="B358" s="1">
         <v>1</v>
@@ -5429,7 +5430,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>0</v>
+        <v>7.1328815975422403E-3</v>
       </c>
       <c r="B359" s="1">
         <v>1</v>
@@ -5443,7 +5444,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>0</v>
+        <v>7.1528588632872496E-3</v>
       </c>
       <c r="B360" s="1">
         <v>1</v>
@@ -5457,7 +5458,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>0</v>
+        <v>7.1728361290322598E-3</v>
       </c>
       <c r="B361" s="1">
         <v>1</v>
@@ -5471,7 +5472,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>0</v>
+        <v>7.1928133947772597E-3</v>
       </c>
       <c r="B362" s="1">
         <v>1</v>
@@ -5485,7 +5486,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>0</v>
+        <v>7.2127906605222699E-3</v>
       </c>
       <c r="B363" s="1">
         <v>1</v>
@@ -5499,7 +5500,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>0</v>
+        <v>7.2327679262672801E-3</v>
       </c>
       <c r="B364" s="1">
         <v>1</v>
@@ -5513,7 +5514,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>0</v>
+        <v>7.2527451920122903E-3</v>
       </c>
       <c r="B365" s="1">
         <v>1</v>
@@ -5527,7 +5528,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>0</v>
+        <v>7.2727224577572901E-3</v>
       </c>
       <c r="B366" s="1">
         <v>1</v>
@@ -5541,7 +5542,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>0</v>
+        <v>7.2926997235023003E-3</v>
       </c>
       <c r="B367" s="1">
         <v>0</v>
@@ -5555,7 +5556,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>0</v>
+        <v>7.3126769892473097E-3</v>
       </c>
       <c r="B368" s="1">
         <v>0</v>
@@ -5569,7 +5570,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>0</v>
+        <v>7.3326542549923199E-3</v>
       </c>
       <c r="B369" s="1">
         <v>0</v>
@@ -5583,7 +5584,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>0</v>
+        <v>7.3526315207373197E-3</v>
       </c>
       <c r="B370" s="1">
         <v>0</v>
@@ -5597,7 +5598,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>0</v>
+        <v>7.3726087864823299E-3</v>
       </c>
       <c r="B371" s="1">
         <v>0</v>
@@ -5611,7 +5612,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>0</v>
+        <v>7.3925860522273401E-3</v>
       </c>
       <c r="B372" s="1">
         <v>0</v>
@@ -5625,7 +5626,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>0</v>
+        <v>7.4125633179723503E-3</v>
       </c>
       <c r="B373" s="1">
         <v>0</v>
@@ -5639,7 +5640,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>0</v>
+        <v>7.4325405837173501E-3</v>
       </c>
       <c r="B374" s="1">
         <v>0</v>
@@ -5653,7 +5654,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>0</v>
+        <v>7.4525178494623603E-3</v>
       </c>
       <c r="B375" s="1">
         <v>0</v>
@@ -5667,7 +5668,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>0</v>
+        <v>7.4724951152073697E-3</v>
       </c>
       <c r="B376" s="1">
         <v>0</v>
@@ -5681,7 +5682,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>0</v>
+        <v>7.4924723809523799E-3</v>
       </c>
       <c r="B377" s="1">
         <v>0</v>
@@ -5695,7 +5696,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>0</v>
+        <v>7.5124496466973901E-3</v>
       </c>
       <c r="B378" s="1">
         <v>0</v>
@@ -5709,7 +5710,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>0</v>
+        <v>7.5324269124423899E-3</v>
       </c>
       <c r="B379" s="1">
         <v>0</v>
@@ -5723,7 +5724,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>0</v>
+        <v>7.5524041781874001E-3</v>
       </c>
       <c r="B380" s="1">
         <v>0</v>
@@ -5737,7 +5738,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>0</v>
+        <v>7.5723814439324104E-3</v>
       </c>
       <c r="B381" s="1">
         <v>0</v>
@@ -5751,7 +5752,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>0</v>
+        <v>7.5923587096774197E-3</v>
       </c>
       <c r="B382" s="1">
         <v>0</v>
@@ -5765,7 +5766,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>0</v>
+        <v>7.6123359754224204E-3</v>
       </c>
       <c r="B383" s="1">
         <v>0</v>
@@ -5779,7 +5780,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>0</v>
+        <v>7.6323132411674297E-3</v>
       </c>
       <c r="B384" s="1">
         <v>1</v>
@@ -5793,7 +5794,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>0</v>
+        <v>7.6522905069124399E-3</v>
       </c>
       <c r="B385" s="1">
         <v>1</v>
@@ -5807,7 +5808,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>0</v>
+        <v>7.6722677726574501E-3</v>
       </c>
       <c r="B386" s="1">
         <v>1</v>
@@ -5821,7 +5822,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>0</v>
+        <v>7.69224503840245E-3</v>
       </c>
       <c r="B387" s="1">
         <v>1</v>
@@ -5835,7 +5836,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>0</v>
+        <v>7.7122223041474602E-3</v>
       </c>
       <c r="B388" s="1">
         <v>1</v>
@@ -5849,7 +5850,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>0</v>
+        <v>7.7321995698924704E-3</v>
       </c>
       <c r="B389" s="1">
         <v>1</v>
@@ -5863,7 +5864,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>0</v>
+        <v>7.7521768356374797E-3</v>
       </c>
       <c r="B390" s="1">
         <v>1</v>
@@ -5877,7 +5878,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>0</v>
+        <v>7.7721541013824899E-3</v>
       </c>
       <c r="B391" s="1">
         <v>1</v>
@@ -5891,7 +5892,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>0</v>
+        <v>7.7921313671274898E-3</v>
       </c>
       <c r="B392" s="1">
         <v>1</v>
@@ -5905,7 +5906,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>0</v>
+        <v>7.8121086328725E-3</v>
       </c>
       <c r="B393" s="1">
         <v>1</v>
@@ -5919,7 +5920,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>0</v>
+        <v>7.8320858986175093E-3</v>
       </c>
       <c r="B394" s="1">
         <v>1</v>
@@ -5933,7 +5934,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>0</v>
+        <v>7.8520631643625195E-3</v>
       </c>
       <c r="B395" s="1">
         <v>1</v>
@@ -5947,7 +5948,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>0</v>
+        <v>7.8720404301075193E-3</v>
       </c>
       <c r="B396" s="1">
         <v>0</v>
@@ -5961,7 +5962,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>0</v>
+        <v>7.8920176958525295E-3</v>
       </c>
       <c r="B397" s="1">
         <v>0</v>
@@ -5975,7 +5976,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>0</v>
+        <v>7.9119949615975398E-3</v>
       </c>
       <c r="B398" s="1">
         <v>0</v>
@@ -5989,7 +5990,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>0</v>
+        <v>7.93197222734255E-3</v>
       </c>
       <c r="B399" s="1">
         <v>0</v>
@@ -6003,7 +6004,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>0</v>
+        <v>7.9519494930875602E-3</v>
       </c>
       <c r="B400" s="1">
         <v>0</v>
@@ -6017,7 +6018,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>0</v>
+        <v>7.97192675883256E-3</v>
       </c>
       <c r="B401" s="1">
         <v>0</v>
@@ -6031,7 +6032,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>0</v>
+        <v>7.9919040245775702E-3</v>
       </c>
       <c r="B402" s="1">
         <v>0</v>
@@ -6045,7 +6046,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>0</v>
+        <v>8.0118812903225804E-3</v>
       </c>
       <c r="B403" s="1">
         <v>0</v>
@@ -6059,7 +6060,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>0</v>
+        <v>8.0318585560675906E-3</v>
       </c>
       <c r="B404" s="1">
         <v>0</v>
@@ -6073,7 +6074,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>0</v>
+        <v>8.0518358218125904E-3</v>
       </c>
       <c r="B405" s="1">
         <v>1</v>
@@ -6087,7 +6088,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>0</v>
+        <v>8.0718130875576007E-3</v>
       </c>
       <c r="B406" s="1">
         <v>1</v>
@@ -6101,7 +6102,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>0</v>
+        <v>8.0917903533026091E-3</v>
       </c>
       <c r="B407" s="1">
         <v>1</v>
@@ -6115,7 +6116,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>0</v>
+        <v>8.1117676190476194E-3</v>
       </c>
       <c r="B408" s="1">
         <v>1</v>
@@ -6129,7 +6130,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>0</v>
+        <v>8.1317448847926192E-3</v>
       </c>
       <c r="B409" s="1">
         <v>1</v>
@@ -6143,7 +6144,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>0</v>
+        <v>8.1517221505376294E-3</v>
       </c>
       <c r="B410" s="1">
         <v>1</v>
@@ -6157,7 +6158,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>0</v>
+        <v>8.1716994162826396E-3</v>
       </c>
       <c r="B411" s="1">
         <v>1</v>
@@ -6171,7 +6172,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>0</v>
+        <v>8.1916766820276498E-3</v>
       </c>
       <c r="B412" s="1">
         <v>0</v>
@@ -6185,7 +6186,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>0</v>
+        <v>8.21165394777266E-3</v>
       </c>
       <c r="B413" s="1">
         <v>0</v>
@@ -6199,7 +6200,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>0</v>
+        <v>8.2316312135176598E-3</v>
       </c>
       <c r="B414" s="1">
         <v>0</v>
@@ -6213,7 +6214,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>0</v>
+        <v>8.25160847926267E-3</v>
       </c>
       <c r="B415" s="1">
         <v>0</v>
@@ -6227,7 +6228,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>0</v>
+        <v>8.2715857450076802E-3</v>
       </c>
       <c r="B416" s="1">
         <v>0</v>
@@ -6241,7 +6242,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>0</v>
+        <v>8.2915630107526905E-3</v>
       </c>
       <c r="B417" s="1">
         <v>0</v>
@@ -6255,7 +6256,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>0</v>
+        <v>8.3115402764976903E-3</v>
       </c>
       <c r="B418" s="1">
         <v>0</v>
@@ -6269,7 +6270,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>0</v>
+        <v>8.3315175422427005E-3</v>
       </c>
       <c r="B419" s="1">
         <v>0</v>
@@ -6283,7 +6284,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>0</v>
+        <v>8.3514948079877107E-3</v>
       </c>
       <c r="B420" s="1">
         <v>0</v>
@@ -6297,7 +6298,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>0</v>
+        <v>8.3714720737327192E-3</v>
       </c>
       <c r="B421" s="1">
         <v>0</v>
@@ -6311,7 +6312,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>0</v>
+        <v>8.3914493394777207E-3</v>
       </c>
       <c r="B422" s="1">
         <v>0</v>
@@ -6325,7 +6326,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>0</v>
+        <v>8.4114266052227292E-3</v>
       </c>
       <c r="B423" s="1">
         <v>0</v>
@@ -6339,7 +6340,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>0</v>
+        <v>8.4314038709677394E-3</v>
       </c>
       <c r="B424" s="1">
         <v>0</v>
@@ -6353,7 +6354,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>0</v>
+        <v>8.4513811367127496E-3</v>
       </c>
       <c r="B425" s="1">
         <v>0</v>
@@ -6367,7 +6368,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>0</v>
+        <v>8.4713584024577598E-3</v>
       </c>
       <c r="B426" s="1">
         <v>0</v>
@@ -6381,7 +6382,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>0</v>
+        <v>8.4913356682027596E-3</v>
       </c>
       <c r="B427" s="1">
         <v>0</v>
@@ -6395,7 +6396,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>0</v>
+        <v>8.5113129339477699E-3</v>
       </c>
       <c r="B428" s="1">
         <v>1</v>
@@ -6409,7 +6410,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>0</v>
+        <v>8.5312901996927801E-3</v>
       </c>
       <c r="B429" s="1">
         <v>1</v>
@@ -6423,7 +6424,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>0</v>
+        <v>8.5512674654377903E-3</v>
       </c>
       <c r="B430" s="1">
         <v>1</v>
@@ -6437,7 +6438,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>0</v>
+        <v>8.5712447311827901E-3</v>
       </c>
       <c r="B431" s="1">
         <v>1</v>
@@ -6451,7 +6452,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>0</v>
+        <v>8.5912219969278003E-3</v>
       </c>
       <c r="B432" s="1">
         <v>1</v>
@@ -6465,7 +6466,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>0</v>
+        <v>8.6111992626728105E-3</v>
       </c>
       <c r="B433" s="1">
         <v>1</v>
@@ -6479,7 +6480,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>0</v>
+        <v>8.6311765284178207E-3</v>
       </c>
       <c r="B434" s="1">
         <v>1</v>
@@ -6493,7 +6494,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>0</v>
+        <v>8.6511537941628205E-3</v>
       </c>
       <c r="B435" s="1">
         <v>1</v>
@@ -6507,7 +6508,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>0</v>
+        <v>8.6711310599078308E-3</v>
       </c>
       <c r="B436" s="1">
         <v>1</v>
@@ -6521,7 +6522,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>0</v>
+        <v>8.6911083256528392E-3</v>
       </c>
       <c r="B437" s="1">
         <v>1</v>
@@ -6535,7 +6536,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>0</v>
+        <v>8.7110855913978495E-3</v>
       </c>
       <c r="B438" s="1">
         <v>1</v>
@@ -6549,7 +6550,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>0</v>
+        <v>8.7310628571428493E-3</v>
       </c>
       <c r="B439" s="1">
         <v>1</v>
@@ -6563,7 +6564,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>0</v>
+        <v>8.7510401228878595E-3</v>
       </c>
       <c r="B440" s="1">
         <v>0</v>
@@ -6577,7 +6578,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>0</v>
+        <v>8.7710173886328697E-3</v>
       </c>
       <c r="B441" s="1">
         <v>0</v>
@@ -6591,7 +6592,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>0</v>
+        <v>8.7909946543778799E-3</v>
       </c>
       <c r="B442" s="1">
         <v>0</v>
@@ -6605,7 +6606,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>0</v>
+        <v>8.8109719201228901E-3</v>
       </c>
       <c r="B443" s="1">
         <v>0</v>
@@ -6619,7 +6620,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>0</v>
+        <v>8.8309491858678899E-3</v>
       </c>
       <c r="B444" s="1">
         <v>0</v>
@@ -6633,7 +6634,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>0</v>
+        <v>8.8509264516129001E-3</v>
       </c>
       <c r="B445" s="1">
         <v>0</v>
@@ -6647,7 +6648,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>0</v>
+        <v>8.8709037173579103E-3</v>
       </c>
       <c r="B446" s="1">
         <v>0</v>
@@ -6661,7 +6662,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>0</v>
+        <v>8.8908809831029206E-3</v>
       </c>
       <c r="B447" s="1">
         <v>0</v>
@@ -6675,7 +6676,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>0</v>
+        <v>8.9108582488479204E-3</v>
       </c>
       <c r="B448" s="1">
         <v>0</v>
@@ -6689,7 +6690,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>0</v>
+        <v>8.9308355145929306E-3</v>
       </c>
       <c r="B449" s="1">
         <v>0</v>
@@ -6703,7 +6704,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>0</v>
+        <v>8.9508127803379408E-3</v>
       </c>
       <c r="B450" s="1">
         <v>0</v>
@@ -6717,7 +6718,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>0</v>
+        <v>8.9707900460829493E-3</v>
       </c>
       <c r="B451" s="1">
         <v>1</v>
@@ -6731,7 +6732,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>0</v>
+        <v>8.9907673118279508E-3</v>
       </c>
       <c r="B452" s="1">
         <v>1</v>
@@ -6745,7 +6746,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>0</v>
+        <v>9.0107445775729593E-3</v>
       </c>
       <c r="B453" s="1">
         <v>1</v>
@@ -6759,7 +6760,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>0</v>
+        <v>9.0307218433179695E-3</v>
       </c>
       <c r="B454" s="1">
         <v>1</v>
@@ -6773,7 +6774,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>0</v>
+        <v>9.0506991090629797E-3</v>
       </c>
       <c r="B455" s="1">
         <v>1</v>
@@ -6787,7 +6788,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>0</v>
+        <v>9.0706763748079899E-3</v>
       </c>
       <c r="B456" s="1">
         <v>1</v>
@@ -6801,7 +6802,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>0</v>
+        <v>9.0906536405529897E-3</v>
       </c>
       <c r="B457" s="1">
         <v>1</v>
@@ -6815,7 +6816,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>0</v>
+        <v>9.110630906298E-3</v>
       </c>
       <c r="B458" s="1">
         <v>1</v>
@@ -6829,7 +6830,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>0</v>
+        <v>9.1306081720430102E-3</v>
       </c>
       <c r="B459" s="1">
         <v>1</v>
@@ -6843,7 +6844,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>0</v>
+        <v>9.1505854377880204E-3</v>
       </c>
       <c r="B460" s="1">
         <v>1</v>
@@ -6857,7 +6858,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>0</v>
+        <v>9.1705627035330202E-3</v>
       </c>
       <c r="B461" s="1">
         <v>1</v>
@@ -6871,7 +6872,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>0</v>
+        <v>9.1905399692780304E-3</v>
       </c>
       <c r="B462" s="1">
         <v>1</v>
@@ -6885,7 +6886,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>0</v>
+        <v>9.2105172350230406E-3</v>
       </c>
       <c r="B463" s="1">
         <v>0</v>
@@ -6899,7 +6900,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>0</v>
+        <v>9.2304945007680508E-3</v>
       </c>
       <c r="B464" s="1">
         <v>0</v>
@@ -6913,7 +6914,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>0</v>
+        <v>9.2504717665130506E-3</v>
       </c>
       <c r="B465" s="1">
         <v>0</v>
@@ -6927,7 +6928,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>0</v>
+        <v>9.2704490322580609E-3</v>
       </c>
       <c r="B466" s="1">
         <v>0</v>
@@ -6941,7 +6942,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>0</v>
+        <v>9.2904262980030693E-3</v>
       </c>
       <c r="B467" s="1">
         <v>0</v>
@@ -6955,7 +6956,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>0</v>
+        <v>9.3104035637480796E-3</v>
       </c>
       <c r="B468" s="1">
         <v>0</v>
@@ -6969,7 +6970,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>0</v>
+        <v>9.3303808294930794E-3</v>
       </c>
       <c r="B469" s="1">
         <v>0</v>
@@ -6983,7 +6984,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>0</v>
+        <v>9.3503580952380896E-3</v>
       </c>
       <c r="B470" s="1">
         <v>0</v>
@@ -6997,7 +6998,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>0</v>
+        <v>9.3703353609830998E-3</v>
       </c>
       <c r="B471" s="1">
         <v>0</v>
@@ -7011,7 +7012,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>0</v>
+        <v>9.39031262672811E-3</v>
       </c>
       <c r="B472" s="1">
         <v>0</v>
@@ -7025,7 +7026,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>0</v>
+        <v>9.4102898924731202E-3</v>
       </c>
       <c r="B473" s="1">
         <v>0</v>
@@ -7039,7 +7040,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>0</v>
+        <v>9.43026715821812E-3</v>
       </c>
       <c r="B474" s="1">
         <v>0</v>
@@ -7053,7 +7054,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>0</v>
+        <v>9.4502444239631302E-3</v>
       </c>
       <c r="B475" s="1">
         <v>0</v>
@@ -7067,7 +7068,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>0</v>
+        <v>9.4702216897081404E-3</v>
       </c>
       <c r="B476" s="1">
         <v>0</v>
@@ -7081,7 +7082,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>0</v>
+        <v>9.4901989554531507E-3</v>
       </c>
       <c r="B477" s="1">
         <v>0</v>
@@ -7095,7 +7096,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>0</v>
+        <v>9.5101762211981505E-3</v>
       </c>
       <c r="B478" s="1">
         <v>0</v>
@@ -7109,7 +7110,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>0</v>
+        <v>9.5301534869431607E-3</v>
       </c>
       <c r="B479" s="1">
         <v>0</v>
@@ -7123,7 +7124,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>0</v>
+        <v>9.5501307526881692E-3</v>
       </c>
       <c r="B480" s="1">
         <v>0</v>
@@ -7137,7 +7138,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>0</v>
+        <v>9.5701080184331794E-3</v>
       </c>
       <c r="B481" s="1">
         <v>1</v>
@@ -7151,7 +7152,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>0</v>
+        <v>9.5900852841781792E-3</v>
       </c>
       <c r="B482" s="1">
         <v>1</v>
@@ -7165,7 +7166,7 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>0</v>
+        <v>9.6100625499231894E-3</v>
       </c>
       <c r="B483" s="1">
         <v>1</v>
@@ -7179,7 +7180,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>0</v>
+        <v>9.6300398156681996E-3</v>
       </c>
       <c r="B484" s="1">
         <v>1</v>
@@ -7193,7 +7194,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>0</v>
+        <v>9.6500170814132098E-3</v>
       </c>
       <c r="B485" s="1">
         <v>1</v>
@@ -7207,7 +7208,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>0</v>
+        <v>9.66999434715822E-3</v>
       </c>
       <c r="B486" s="1">
         <v>1</v>
@@ -7221,7 +7222,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>0</v>
+        <v>9.6899716129032198E-3</v>
       </c>
       <c r="B487" s="1">
         <v>1</v>
@@ -7235,7 +7236,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>0</v>
+        <v>9.7099488786482301E-3</v>
       </c>
       <c r="B488" s="1">
         <v>1</v>
@@ -7249,7 +7250,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>0</v>
+        <v>9.7299261443932403E-3</v>
       </c>
       <c r="B489" s="1">
         <v>1</v>
@@ -7263,7 +7264,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>0</v>
+        <v>9.7499034101382505E-3</v>
       </c>
       <c r="B490" s="1">
         <v>1</v>
@@ -7277,7 +7278,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>0</v>
+        <v>9.7698806758832503E-3</v>
       </c>
       <c r="B491" s="1">
         <v>1</v>
@@ -7291,7 +7292,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>0</v>
+        <v>9.7898579416282605E-3</v>
       </c>
       <c r="B492" s="1">
         <v>1</v>
@@ -7305,7 +7306,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>0</v>
+        <v>9.8098352073732707E-3</v>
       </c>
       <c r="B493" s="1">
         <v>1</v>
@@ -7319,7 +7320,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>0</v>
+        <v>9.8298124731182792E-3</v>
       </c>
       <c r="B494" s="1">
         <v>1</v>
@@ -7333,7 +7334,7 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>0</v>
+        <v>9.8497897388632807E-3</v>
       </c>
       <c r="B495" s="1">
         <v>0</v>
@@ -7347,7 +7348,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>0</v>
+        <v>9.8697670046082892E-3</v>
       </c>
       <c r="B496" s="1">
         <v>0</v>
@@ -7361,7 +7362,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>0</v>
+        <v>9.8897442703532994E-3</v>
       </c>
       <c r="B497" s="1">
         <v>0</v>
@@ -7375,7 +7376,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>0</v>
+        <v>9.9097215360983096E-3</v>
       </c>
       <c r="B498" s="1">
         <v>0</v>
@@ -7389,7 +7390,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>0</v>
+        <v>9.9296988018433199E-3</v>
       </c>
       <c r="B499" s="1">
         <v>0</v>
@@ -7403,7 +7404,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>0</v>
+        <v>9.9496760675883197E-3</v>
       </c>
       <c r="B500" s="1">
         <v>0</v>
@@ -7417,7 +7418,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>0</v>
+        <v>9.9696533333333299E-3</v>
       </c>
       <c r="B501" s="1">
         <v>0</v>
@@ -7431,7 +7432,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>0</v>
+        <v>9.9896305990783401E-3</v>
       </c>
       <c r="B502" s="1">
         <v>0</v>
@@ -7445,7 +7446,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>0</v>
+        <v>1.0009607864823401E-2</v>
       </c>
       <c r="B503" s="1">
         <v>0</v>
@@ -7459,7 +7460,7 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>0</v>
+        <v>1.00295851305684E-2</v>
       </c>
       <c r="B504" s="1">
         <v>0</v>
@@ -7473,7 +7474,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>0</v>
+        <v>1.00495623963134E-2</v>
       </c>
       <c r="B505" s="1">
         <v>0</v>
@@ -7487,7 +7488,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>0</v>
+        <v>1.0069539662058299E-2</v>
       </c>
       <c r="B506" s="1">
         <v>0</v>
@@ -7501,7 +7502,7 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>0</v>
+        <v>1.00895169278034E-2</v>
       </c>
       <c r="B507" s="1">
         <v>0</v>
@@ -7515,7 +7516,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>0</v>
+        <v>1.01094941935484E-2</v>
       </c>
       <c r="B508" s="1">
         <v>0</v>
@@ -7529,7 +7530,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>0</v>
+        <v>1.0129471459293399E-2</v>
       </c>
       <c r="B509" s="1">
         <v>0</v>
@@ -7543,7 +7544,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>0</v>
+        <v>1.0149448725038399E-2</v>
       </c>
       <c r="B510" s="1">
         <v>1</v>
@@ -7557,7 +7558,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>0</v>
+        <v>1.0169425990783401E-2</v>
       </c>
       <c r="B511" s="1">
         <v>1</v>
@@ -7571,7 +7572,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>0</v>
+        <v>1.0189403256528401E-2</v>
       </c>
       <c r="B512" s="1">
         <v>1</v>
@@ -7585,7 +7586,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>0</v>
+        <v>1.02093805222734E-2</v>
       </c>
       <c r="B513" s="1">
         <v>1</v>
@@ -7599,7 +7600,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>0</v>
+        <v>1.02293577880184E-2</v>
       </c>
       <c r="B514" s="1">
         <v>1</v>
@@ -7613,7 +7614,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>0</v>
+        <v>1.02493350537634E-2</v>
       </c>
       <c r="B515" s="1">
         <v>1</v>
@@ -7627,7 +7628,7 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>0</v>
+        <v>1.02693123195084E-2</v>
       </c>
       <c r="B516" s="1">
         <v>1</v>
@@ -7641,7 +7642,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>0</v>
+        <v>1.02892895852534E-2</v>
       </c>
       <c r="B517" s="1">
         <v>1</v>
@@ -7655,7 +7656,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>0</v>
+        <v>1.0309266850998399E-2</v>
       </c>
       <c r="B518" s="1">
         <v>1</v>
@@ -7669,7 +7670,7 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>0</v>
+        <v>1.0329244116743399E-2</v>
       </c>
       <c r="B519" s="1">
         <v>1</v>
@@ -7683,7 +7684,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>0</v>
+        <v>1.03492213824885E-2</v>
       </c>
       <c r="B520" s="1">
         <v>1</v>
@@ -7697,7 +7698,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>0</v>
+        <v>1.0369198648233499E-2</v>
       </c>
       <c r="B521" s="1">
         <v>1</v>
@@ -7711,7 +7712,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>0</v>
+        <v>1.0389175913978499E-2</v>
       </c>
       <c r="B522" s="1">
         <v>1</v>
@@ -7725,7 +7726,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>0</v>
+        <v>1.0409153179723501E-2</v>
       </c>
       <c r="B523" s="1">
         <v>1</v>
@@ -7739,7 +7740,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>0</v>
+        <v>1.0429130445468501E-2</v>
       </c>
       <c r="B524" s="1">
         <v>0</v>
@@ -7753,7 +7754,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>0</v>
+        <v>1.04491077112135E-2</v>
       </c>
       <c r="B525" s="1">
         <v>0</v>
@@ -7767,7 +7768,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>0</v>
+        <v>1.04690849769585E-2</v>
       </c>
       <c r="B526" s="1">
         <v>0</v>
@@ -7781,7 +7782,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>0</v>
+        <v>1.04890622427035E-2</v>
       </c>
       <c r="B527" s="1">
         <v>0</v>
@@ -7795,7 +7796,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>0</v>
+        <v>1.05090395084485E-2</v>
       </c>
       <c r="B528" s="1">
         <v>0</v>
@@ -7809,7 +7810,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>0</v>
+        <v>1.05290167741935E-2</v>
       </c>
       <c r="B529" s="1">
         <v>0</v>
@@ -7823,7 +7824,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>0</v>
+        <v>1.0548994039938499E-2</v>
       </c>
       <c r="B530" s="1">
         <v>0</v>
@@ -7837,7 +7838,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>0</v>
+        <v>1.0568971305683499E-2</v>
       </c>
       <c r="B531" s="1">
         <v>0</v>
@@ -7851,7 +7852,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>0</v>
+        <v>1.0588948571428501E-2</v>
       </c>
       <c r="B532" s="1">
         <v>0</v>
@@ -7865,7 +7866,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>0</v>
+        <v>1.0608925837173599E-2</v>
       </c>
       <c r="B533" s="1">
         <v>1</v>
@@ -7879,7 +7880,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>0</v>
+        <v>1.0628903102918599E-2</v>
       </c>
       <c r="B534" s="1">
         <v>1</v>
@@ -7893,7 +7894,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>0</v>
+        <v>1.0648880368663601E-2</v>
       </c>
       <c r="B535" s="1">
         <v>1</v>
@@ -7907,7 +7908,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>0</v>
+        <v>1.0668857634408601E-2</v>
       </c>
       <c r="B536" s="1">
         <v>1</v>
@@ -7921,7 +7922,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>0</v>
+        <v>1.06888349001536E-2</v>
       </c>
       <c r="B537" s="1">
         <v>1</v>
@@ -7935,7 +7936,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>0</v>
+        <v>1.07088121658986E-2</v>
       </c>
       <c r="B538" s="1">
         <v>1</v>
@@ -7949,7 +7950,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>0</v>
+        <v>1.07287894316436E-2</v>
       </c>
       <c r="B539" s="1">
         <v>1</v>
@@ -7963,7 +7964,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>0</v>
+        <v>1.07487666973886E-2</v>
       </c>
       <c r="B540" s="1">
         <v>0</v>
@@ -7977,7 +7978,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>0</v>
+        <v>1.07687439631336E-2</v>
       </c>
       <c r="B541" s="1">
         <v>0</v>
@@ -7991,7 +7992,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>0</v>
+        <v>1.0788721228878599E-2</v>
       </c>
       <c r="B542" s="1">
         <v>0</v>
@@ -8005,7 +8006,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>0</v>
+        <v>1.0808698494623599E-2</v>
       </c>
       <c r="B543" s="1">
         <v>0</v>
@@ -8019,7 +8020,7 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>0</v>
+        <v>1.0828675760368601E-2</v>
       </c>
       <c r="B544" s="1">
         <v>0</v>
@@ -8033,7 +8034,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>0</v>
+        <v>1.0848653026113601E-2</v>
       </c>
       <c r="B545" s="1">
         <v>0</v>
@@ -8047,7 +8048,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>0</v>
+        <v>1.0868630291858699E-2</v>
       </c>
       <c r="B546" s="1">
         <v>0</v>
@@ -8061,7 +8062,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>0</v>
+        <v>1.0888607557603701E-2</v>
       </c>
       <c r="B547" s="1">
         <v>0</v>
@@ -8075,7 +8076,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>0</v>
+        <v>1.0908584823348701E-2</v>
       </c>
       <c r="B548" s="1">
         <v>0</v>
@@ -8089,7 +8090,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>0</v>
+        <v>1.09285620890937E-2</v>
       </c>
       <c r="B549" s="1">
         <v>0</v>
@@ -8103,7 +8104,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>0</v>
+        <v>1.09485393548387E-2</v>
       </c>
       <c r="B550" s="1">
         <v>0</v>
@@ -8117,7 +8118,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>0</v>
+        <v>1.09685166205837E-2</v>
       </c>
       <c r="B551" s="1">
         <v>1</v>
@@ -8131,7 +8132,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>0</v>
+        <v>1.09884938863287E-2</v>
       </c>
       <c r="B552" s="1">
         <v>1</v>
@@ -8145,7 +8146,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>0</v>
+        <v>1.10084711520737E-2</v>
       </c>
       <c r="B553" s="1">
         <v>1</v>
@@ -8159,7 +8160,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>0</v>
+        <v>1.10284484178187E-2</v>
       </c>
       <c r="B554" s="1">
         <v>1</v>
@@ -8173,7 +8174,7 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>0</v>
+        <v>1.1048425683563699E-2</v>
       </c>
       <c r="B555" s="1">
         <v>1</v>
@@ -8187,7 +8188,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>0</v>
+        <v>1.1068402949308701E-2</v>
       </c>
       <c r="B556" s="1">
         <v>1</v>
@@ -8201,7 +8202,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>0</v>
+        <v>1.1088380215053701E-2</v>
       </c>
       <c r="B557" s="1">
         <v>1</v>
@@ -8215,7 +8216,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>0</v>
+        <v>1.11083574807987E-2</v>
       </c>
       <c r="B558" s="1">
         <v>1</v>
@@ -8229,7 +8230,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>0</v>
+        <v>1.1128334746543799E-2</v>
       </c>
       <c r="B559" s="1">
         <v>1</v>
@@ -8243,7 +8244,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>0</v>
+        <v>1.1148312012288801E-2</v>
       </c>
       <c r="B560" s="1">
         <v>1</v>
@@ -8257,7 +8258,7 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>0</v>
+        <v>1.11682892780338E-2</v>
       </c>
       <c r="B561" s="1">
         <v>1</v>
@@ -8271,7 +8272,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>0</v>
+        <v>1.11882665437788E-2</v>
       </c>
       <c r="B562" s="1">
         <v>1</v>
@@ -8285,7 +8286,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>0</v>
+        <v>1.12082438095238E-2</v>
       </c>
       <c r="B563" s="1">
         <v>1</v>
@@ -8299,7 +8300,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>0</v>
+        <v>1.12282210752688E-2</v>
       </c>
       <c r="B564" s="1">
         <v>0</v>
@@ -8313,7 +8314,7 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>0</v>
+        <v>1.12481983410138E-2</v>
       </c>
       <c r="B565" s="1">
         <v>0</v>
@@ -8327,7 +8328,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>0</v>
+        <v>1.12681756067588E-2</v>
       </c>
       <c r="B566" s="1">
         <v>0</v>
@@ -8341,7 +8342,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>0</v>
+        <v>1.1288152872503799E-2</v>
       </c>
       <c r="B567" s="1">
         <v>0</v>
@@ -8355,7 +8356,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>0</v>
+        <v>1.1308130138248801E-2</v>
       </c>
       <c r="B568" s="1">
         <v>0</v>
@@ -8369,7 +8370,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>0</v>
+        <v>1.1328107403993801E-2</v>
       </c>
       <c r="B569" s="1">
         <v>0</v>
@@ -8383,7 +8384,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>0</v>
+        <v>1.13480846697388E-2</v>
       </c>
       <c r="B570" s="1">
         <v>0</v>
@@ -8397,7 +8398,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>0</v>
+        <v>1.13680619354838E-2</v>
       </c>
       <c r="B571" s="1">
         <v>0</v>
@@ -8411,7 +8412,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>0</v>
+        <v>1.1388039201228901E-2</v>
       </c>
       <c r="B572" s="1">
         <v>0</v>
@@ -8425,7 +8426,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>0</v>
+        <v>1.1408016466973901E-2</v>
       </c>
       <c r="B573" s="1">
         <v>0</v>
@@ -8439,7 +8440,7 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>0</v>
+        <v>1.14279937327189E-2</v>
       </c>
       <c r="B574" s="1">
         <v>1</v>
@@ -8453,7 +8454,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>0</v>
+        <v>1.14479709984639E-2</v>
       </c>
       <c r="B575" s="1">
         <v>1</v>
@@ -8467,7 +8468,7 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>0</v>
+        <v>1.14679482642089E-2</v>
       </c>
       <c r="B576" s="1">
         <v>1</v>
@@ -8481,7 +8482,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>0</v>
+        <v>1.14879255299539E-2</v>
       </c>
       <c r="B577" s="1">
         <v>1</v>
@@ -8495,7 +8496,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>0</v>
+        <v>1.15079027956989E-2</v>
       </c>
       <c r="B578" s="1">
         <v>1</v>
@@ -8509,7 +8510,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>0</v>
+        <v>1.1527880061443899E-2</v>
       </c>
       <c r="B579" s="1">
         <v>1</v>
@@ -8523,7 +8524,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>0</v>
+        <v>1.1547857327188899E-2</v>
       </c>
       <c r="B580" s="1">
         <v>1</v>
@@ -8537,7 +8538,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>0</v>
+        <v>1.1567834592933901E-2</v>
       </c>
       <c r="B581" s="1">
         <v>1</v>
@@ -8551,7 +8552,7 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>0</v>
+        <v>1.15878118586789E-2</v>
       </c>
       <c r="B582" s="1">
         <v>1</v>
@@ -8565,7 +8566,7 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>0</v>
+        <v>1.16077891244239E-2</v>
       </c>
       <c r="B583" s="1">
         <v>1</v>
@@ -8579,7 +8580,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>0</v>
+        <v>1.16277663901689E-2</v>
       </c>
       <c r="B584" s="1">
         <v>1</v>
@@ -8593,7 +8594,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>0</v>
+        <v>1.1647743655914001E-2</v>
       </c>
       <c r="B585" s="1">
         <v>0</v>
@@ -8607,7 +8608,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>0</v>
+        <v>1.1667720921659E-2</v>
       </c>
       <c r="B586" s="1">
         <v>0</v>
@@ -8621,7 +8622,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>0</v>
+        <v>1.1687698187404E-2</v>
       </c>
       <c r="B587" s="1">
         <v>0</v>
@@ -8635,7 +8636,7 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>0</v>
+        <v>1.1707675453149E-2</v>
       </c>
       <c r="B588" s="1">
         <v>0</v>
@@ -8649,7 +8650,7 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>0</v>
+        <v>1.1727652718894E-2</v>
       </c>
       <c r="B589" s="1">
         <v>0</v>
@@ -8663,7 +8664,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>0</v>
+        <v>1.1747629984639E-2</v>
       </c>
       <c r="B590" s="1">
         <v>0</v>
@@ -8677,7 +8678,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>0</v>
+        <v>1.1767607250383999E-2</v>
       </c>
       <c r="B591" s="1">
         <v>0</v>
@@ -8691,7 +8692,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>0</v>
+        <v>1.1787584516128999E-2</v>
       </c>
       <c r="B592" s="1">
         <v>0</v>
@@ -8705,7 +8706,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>0</v>
+        <v>1.1807561781874001E-2</v>
       </c>
       <c r="B593" s="1">
         <v>0</v>
@@ -8719,7 +8720,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>0</v>
+        <v>1.1827539047619001E-2</v>
       </c>
       <c r="B594" s="1">
         <v>0</v>
@@ -8733,7 +8734,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>0</v>
+        <v>1.1847516313364E-2</v>
       </c>
       <c r="B595" s="1">
         <v>0</v>
@@ -8747,7 +8748,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>0</v>
+        <v>1.1867493579109E-2</v>
       </c>
       <c r="B596" s="1">
         <v>0</v>
@@ -8761,7 +8762,7 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>0</v>
+        <v>1.1887470844854E-2</v>
       </c>
       <c r="B597" s="1">
         <v>0</v>
@@ -8775,7 +8776,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>0</v>
+        <v>1.19074481105991E-2</v>
       </c>
       <c r="B598" s="1">
         <v>0</v>
@@ -8789,7 +8790,7 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>0</v>
+        <v>1.19274253763441E-2</v>
       </c>
       <c r="B599" s="1">
         <v>0</v>
@@ -8803,7 +8804,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>0</v>
+        <v>1.19474026420891E-2</v>
       </c>
       <c r="B600" s="1">
         <v>0</v>
@@ -8817,7 +8818,7 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>0</v>
+        <v>1.19673799078341E-2</v>
       </c>
       <c r="B601" s="1">
         <v>0</v>
@@ -8831,7 +8832,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>0</v>
+        <v>1.19873571735791E-2</v>
       </c>
       <c r="B602" s="1">
         <v>0</v>
@@ -8845,7 +8846,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>0</v>
+        <v>1.2007334439324099E-2</v>
       </c>
       <c r="B603" s="1">
         <v>0</v>
@@ -8859,7 +8860,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>0</v>
+        <v>1.2027311705069099E-2</v>
       </c>
       <c r="B604" s="1">
         <v>0</v>
@@ -8873,7 +8874,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>0</v>
+        <v>1.2047288970814101E-2</v>
       </c>
       <c r="B605" s="1">
         <v>0</v>
@@ -8887,7 +8888,7 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>0</v>
+        <v>1.2067266236559101E-2</v>
       </c>
       <c r="B606" s="1">
         <v>0</v>
@@ -8901,7 +8902,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>0</v>
+        <v>1.20872435023041E-2</v>
       </c>
       <c r="B607" s="1">
         <v>0</v>
@@ -8915,7 +8916,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>0</v>
+        <v>1.21072207680491E-2</v>
       </c>
       <c r="B608" s="1">
         <v>1</v>
@@ -8929,7 +8930,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>0</v>
+        <v>1.21271980337941E-2</v>
       </c>
       <c r="B609" s="1">
         <v>1</v>
@@ -8943,7 +8944,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>0</v>
+        <v>1.21471752995391E-2</v>
       </c>
       <c r="B610" s="1">
         <v>1</v>
@@ -8957,7 +8958,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>0</v>
+        <v>1.21671525652842E-2</v>
       </c>
       <c r="B611" s="1">
         <v>1</v>
@@ -8971,7 +8972,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>0</v>
+        <v>1.21871298310292E-2</v>
       </c>
       <c r="B612" s="1">
         <v>1</v>
@@ -8985,7 +8986,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>0</v>
+        <v>1.22071070967742E-2</v>
       </c>
       <c r="B613" s="1">
         <v>1</v>
@@ -8999,7 +9000,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>0</v>
+        <v>1.22270843625192E-2</v>
       </c>
       <c r="B614" s="1">
         <v>1</v>
@@ -9013,7 +9014,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>0</v>
+        <v>1.2247061628264199E-2</v>
       </c>
       <c r="B615" s="1">
         <v>1</v>
@@ -9027,7 +9028,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>0</v>
+        <v>1.2267038894009199E-2</v>
       </c>
       <c r="B616" s="1">
         <v>0</v>
@@ -9041,7 +9042,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>0</v>
+        <v>1.2287016159754201E-2</v>
       </c>
       <c r="B617" s="1">
         <v>0</v>
@@ -9055,7 +9056,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>0</v>
+        <v>1.2306993425499201E-2</v>
       </c>
       <c r="B618" s="1">
         <v>0</v>
@@ -9069,7 +9070,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>0</v>
+        <v>1.23269706912442E-2</v>
       </c>
       <c r="B619" s="1">
         <v>0</v>
@@ -9083,7 +9084,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>0</v>
+        <v>1.23469479569892E-2</v>
       </c>
       <c r="B620" s="1">
         <v>0</v>
@@ -9097,7 +9098,7 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>0</v>
+        <v>1.23669252227342E-2</v>
       </c>
       <c r="B621" s="1">
         <v>0</v>
@@ -9111,7 +9112,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>0</v>
+        <v>1.23869024884792E-2</v>
       </c>
       <c r="B622" s="1">
         <v>0</v>
@@ -9125,7 +9126,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>0</v>
+        <v>1.24068797542242E-2</v>
       </c>
       <c r="B623" s="1">
         <v>0</v>
@@ -9139,7 +9140,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>0</v>
+        <v>1.24268570199693E-2</v>
       </c>
       <c r="B624" s="1">
         <v>0</v>
@@ -9153,7 +9154,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>0</v>
+        <v>1.24468342857143E-2</v>
       </c>
       <c r="B625" s="1">
         <v>0</v>
@@ -9167,7 +9168,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>0</v>
+        <v>1.24668115514593E-2</v>
       </c>
       <c r="B626" s="1">
         <v>1</v>
@@ -9181,7 +9182,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>0</v>
+        <v>1.2486788817204299E-2</v>
       </c>
       <c r="B627" s="1">
         <v>1</v>
@@ -9195,7 +9196,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>0</v>
+        <v>1.2506766082949299E-2</v>
       </c>
       <c r="B628" s="1">
         <v>1</v>
@@ -9209,7 +9210,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>0</v>
+        <v>1.2526743348694301E-2</v>
       </c>
       <c r="B629" s="1">
         <v>1</v>
@@ -9223,7 +9224,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>0</v>
+        <v>1.2546720614439301E-2</v>
       </c>
       <c r="B630" s="1">
         <v>1</v>
@@ -9237,7 +9238,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>0</v>
+        <v>1.25666978801843E-2</v>
       </c>
       <c r="B631" s="1">
         <v>1</v>
@@ -9251,7 +9252,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>0</v>
+        <v>1.25866751459293E-2</v>
       </c>
       <c r="B632" s="1">
         <v>1</v>
@@ -9265,7 +9266,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>0</v>
+        <v>1.26066524116743E-2</v>
       </c>
       <c r="B633" s="1">
         <v>1</v>
@@ -9279,7 +9280,7 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>0</v>
+        <v>1.26266296774193E-2</v>
       </c>
       <c r="B634" s="1">
         <v>1</v>
@@ -9293,7 +9294,7 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>0</v>
+        <v>1.26466069431643E-2</v>
       </c>
       <c r="B635" s="1">
         <v>0</v>
@@ -9307,7 +9308,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>0</v>
+        <v>1.2666584208909299E-2</v>
       </c>
       <c r="B636" s="1">
         <v>0</v>
@@ -9321,7 +9322,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>0</v>
+        <v>1.26865614746544E-2</v>
       </c>
       <c r="B637" s="1">
         <v>0</v>
@@ -9335,7 +9336,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>0</v>
+        <v>1.27065387403994E-2</v>
       </c>
       <c r="B638" s="1">
         <v>0</v>
@@ -9349,7 +9350,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>0</v>
+        <v>1.2726516006144399E-2</v>
       </c>
       <c r="B639" s="1">
         <v>0</v>
@@ -9363,7 +9364,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>0</v>
+        <v>1.2746493271889399E-2</v>
       </c>
       <c r="B640" s="1">
         <v>0</v>
@@ -9377,7 +9378,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>0</v>
+        <v>1.2766470537634401E-2</v>
       </c>
       <c r="B641" s="1">
         <v>0</v>
@@ -9391,7 +9392,7 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>0</v>
+        <v>1.2786447803379401E-2</v>
       </c>
       <c r="B642" s="1">
         <v>0</v>
@@ -9405,7 +9406,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>0</v>
+        <v>1.28064250691244E-2</v>
       </c>
       <c r="B643" s="1">
         <v>0</v>
@@ -9419,7 +9420,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>0</v>
+        <v>1.28264023348694E-2</v>
       </c>
       <c r="B644" s="1">
         <v>0</v>
@@ -9433,7 +9434,7 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>0</v>
+        <v>1.28463796006144E-2</v>
       </c>
       <c r="B645" s="1">
         <v>1</v>
@@ -9447,7 +9448,7 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>0</v>
+        <v>1.28663568663594E-2</v>
       </c>
       <c r="B646" s="1">
         <v>1</v>
@@ -9461,7 +9462,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>0</v>
+        <v>1.28863341321044E-2</v>
       </c>
       <c r="B647" s="1">
         <v>1</v>
@@ -9475,7 +9476,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>0</v>
+        <v>1.2906311397849399E-2</v>
       </c>
       <c r="B648" s="1">
         <v>1</v>
@@ -9489,7 +9490,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>0</v>
+        <v>1.2926288663594399E-2</v>
       </c>
       <c r="B649" s="1">
         <v>1</v>
@@ -9503,7 +9504,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>0</v>
+        <v>1.29462659293395E-2</v>
       </c>
       <c r="B650" s="1">
         <v>1</v>
@@ -9517,7 +9518,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>0</v>
+        <v>1.2966243195084499E-2</v>
       </c>
       <c r="B651" s="1">
         <v>1</v>
@@ -9531,7 +9532,7 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>0</v>
+        <v>1.2986220460829499E-2</v>
       </c>
       <c r="B652" s="1">
         <v>1</v>
@@ -9545,7 +9546,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>0</v>
+        <v>1.3006197726574501E-2</v>
       </c>
       <c r="B653" s="1">
         <v>1</v>
@@ -9559,7 +9560,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>0</v>
+        <v>1.3026174992319501E-2</v>
       </c>
       <c r="B654" s="1">
         <v>1</v>
@@ -9573,7 +9574,7 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>0</v>
+        <v>1.30461522580645E-2</v>
       </c>
       <c r="B655" s="1">
         <v>1</v>
@@ -9587,7 +9588,7 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>0</v>
+        <v>1.30661295238095E-2</v>
       </c>
       <c r="B656" s="1">
         <v>1</v>
@@ -9601,7 +9602,7 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
-        <v>0</v>
+        <v>1.30861067895545E-2</v>
       </c>
       <c r="B657" s="1">
         <v>1</v>
@@ -9615,7 +9616,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>0</v>
+        <v>1.31060840552995E-2</v>
       </c>
       <c r="B658" s="1">
         <v>1</v>
@@ -9629,7 +9630,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>0</v>
+        <v>1.31260613210445E-2</v>
       </c>
       <c r="B659" s="1">
         <v>1</v>
@@ -9643,7 +9644,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>0</v>
+        <v>1.3146038586789499E-2</v>
       </c>
       <c r="B660" s="1">
         <v>1</v>
@@ -9657,7 +9658,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
-        <v>0</v>
+        <v>1.3166015852534499E-2</v>
       </c>
       <c r="B661" s="1">
         <v>0</v>
@@ -9671,7 +9672,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>0</v>
+        <v>1.3185993118279501E-2</v>
       </c>
       <c r="B662" s="1">
         <v>0</v>
@@ -9685,7 +9686,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
-        <v>0</v>
+        <v>1.3205970384024599E-2</v>
       </c>
       <c r="B663" s="1">
         <v>0</v>
@@ -9699,7 +9700,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>0</v>
+        <v>1.3225947649769599E-2</v>
       </c>
       <c r="B664" s="1">
         <v>0</v>
@@ -9713,7 +9714,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>0</v>
+        <v>1.3245924915514601E-2</v>
       </c>
       <c r="B665" s="1">
         <v>0</v>
@@ -9727,7 +9728,7 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>0</v>
+        <v>1.3265902181259601E-2</v>
       </c>
       <c r="B666" s="1">
         <v>0</v>
@@ -9741,7 +9742,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>0</v>
+        <v>1.32858794470046E-2</v>
       </c>
       <c r="B667" s="1">
         <v>0</v>
@@ -9755,7 +9756,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
-        <v>0</v>
+        <v>1.33058567127496E-2</v>
       </c>
       <c r="B668" s="1">
         <v>0</v>
@@ -9769,7 +9770,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>0</v>
+        <v>1.33258339784946E-2</v>
       </c>
       <c r="B669" s="1">
         <v>0</v>
@@ -9783,7 +9784,7 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>0</v>
+        <v>1.33458112442396E-2</v>
       </c>
       <c r="B670" s="1">
         <v>0</v>
@@ -9797,7 +9798,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>0</v>
+        <v>1.33657885099846E-2</v>
       </c>
       <c r="B671" s="1">
         <v>0</v>
@@ -9811,7 +9812,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>0</v>
+        <v>1.3385765775729599E-2</v>
       </c>
       <c r="B672" s="1">
         <v>1</v>
@@ -9825,7 +9826,7 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>0</v>
+        <v>1.3405743041474599E-2</v>
       </c>
       <c r="B673" s="1">
         <v>1</v>
@@ -9839,7 +9840,7 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>0</v>
+        <v>1.3425720307219601E-2</v>
       </c>
       <c r="B674" s="1">
         <v>1</v>
@@ -9853,7 +9854,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>0</v>
+        <v>1.3445697572964601E-2</v>
       </c>
       <c r="B675" s="1">
         <v>1</v>
@@ -9867,7 +9868,7 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>0</v>
+        <v>1.3465674838709699E-2</v>
       </c>
       <c r="B676" s="1">
         <v>1</v>
@@ -9881,7 +9882,7 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>0</v>
+        <v>1.3485652104454701E-2</v>
       </c>
       <c r="B677" s="1">
         <v>1</v>
@@ -9895,7 +9896,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>0</v>
+        <v>1.3505629370199701E-2</v>
       </c>
       <c r="B678" s="1">
         <v>1</v>
@@ -9909,7 +9910,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>0</v>
+        <v>1.35256066359447E-2</v>
       </c>
       <c r="B679" s="1">
         <v>1</v>
@@ -9923,7 +9924,7 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>0</v>
+        <v>1.35455839016897E-2</v>
       </c>
       <c r="B680" s="1">
         <v>1</v>
@@ -9937,7 +9938,7 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>0</v>
+        <v>1.35655611674347E-2</v>
       </c>
       <c r="B681" s="1">
         <v>1</v>
@@ -9951,7 +9952,7 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>0</v>
+        <v>1.35855384331797E-2</v>
       </c>
       <c r="B682" s="1">
         <v>1</v>
@@ -9965,7 +9966,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>0</v>
+        <v>1.36055156989247E-2</v>
       </c>
       <c r="B683" s="1">
         <v>1</v>
@@ -9979,7 +9980,7 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>0</v>
+        <v>1.3625492964669699E-2</v>
       </c>
       <c r="B684" s="1">
         <v>1</v>
@@ -9993,7 +9994,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>0</v>
+        <v>1.3645470230414699E-2</v>
       </c>
       <c r="B685" s="1">
         <v>0</v>
@@ -10007,7 +10008,7 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>0</v>
+        <v>1.3665447496159701E-2</v>
       </c>
       <c r="B686" s="1">
         <v>0</v>
@@ -10021,7 +10022,7 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>0</v>
+        <v>1.3685424761904701E-2</v>
       </c>
       <c r="B687" s="1">
         <v>0</v>
@@ -10035,7 +10036,7 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>0</v>
+        <v>1.37054020276497E-2</v>
       </c>
       <c r="B688" s="1">
         <v>0</v>
@@ -10049,7 +10050,7 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>0</v>
+        <v>1.3725379293394801E-2</v>
       </c>
       <c r="B689" s="1">
         <v>0</v>
@@ -10063,7 +10064,7 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>0</v>
+        <v>1.3745356559139801E-2</v>
       </c>
       <c r="B690" s="1">
         <v>0</v>
@@ -10077,7 +10078,7 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>0</v>
+        <v>1.37653338248848E-2</v>
       </c>
       <c r="B691" s="1">
         <v>0</v>
@@ -10091,7 +10092,7 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>0</v>
+        <v>1.37853110906298E-2</v>
       </c>
       <c r="B692" s="1">
         <v>0</v>
@@ -10105,7 +10106,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
-        <v>0</v>
+        <v>1.38052883563748E-2</v>
       </c>
       <c r="B693" s="1">
         <v>0</v>
@@ -10119,7 +10120,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
-        <v>0</v>
+        <v>1.38252656221198E-2</v>
       </c>
       <c r="B694" s="1">
         <v>0</v>
@@ -10133,7 +10134,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
-        <v>0</v>
+        <v>1.38452428878648E-2</v>
       </c>
       <c r="B695" s="1">
         <v>0</v>
@@ -10147,7 +10148,7 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
-        <v>0</v>
+        <v>1.38652201536098E-2</v>
       </c>
       <c r="B696" s="1">
         <v>1</v>
@@ -10161,7 +10162,7 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
-        <v>0</v>
+        <v>1.3885197419354799E-2</v>
       </c>
       <c r="B697" s="1">
         <v>1</v>
@@ -10175,7 +10176,7 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
-        <v>0</v>
+        <v>1.3905174685099801E-2</v>
       </c>
       <c r="B698" s="1">
         <v>1</v>
@@ -10189,7 +10190,7 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
-        <v>0</v>
+        <v>1.3925151950844801E-2</v>
       </c>
       <c r="B699" s="1">
         <v>1</v>
@@ -10203,7 +10204,7 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
-        <v>0</v>
+        <v>1.39451292165898E-2</v>
       </c>
       <c r="B700" s="1">
         <v>1</v>
@@ -10217,7 +10218,7 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
-        <v>0</v>
+        <v>1.39651064823348E-2</v>
       </c>
       <c r="B701" s="1">
         <v>1</v>
@@ -10231,7 +10232,7 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
-        <v>0</v>
+        <v>1.3985083748079901E-2</v>
       </c>
       <c r="B702" s="1">
         <v>1</v>
@@ -10245,7 +10246,7 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
-        <v>0</v>
+        <v>1.40050610138249E-2</v>
       </c>
       <c r="B703" s="1">
         <v>1</v>
@@ -10259,7 +10260,7 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
-        <v>0</v>
+        <v>1.40250382795699E-2</v>
       </c>
       <c r="B704" s="1">
         <v>1</v>
@@ -10273,7 +10274,7 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>0</v>
+        <v>1.40450155453149E-2</v>
       </c>
       <c r="B705" s="1">
         <v>1</v>
@@ -10287,7 +10288,7 @@
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
-        <v>0</v>
+        <v>1.40649928110599E-2</v>
       </c>
       <c r="B706" s="1">
         <v>1</v>
@@ -10301,7 +10302,7 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
-        <v>0</v>
+        <v>1.40849700768049E-2</v>
       </c>
       <c r="B707" s="1">
         <v>1</v>
@@ -10315,7 +10316,7 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
-        <v>0</v>
+        <v>1.41049473425499E-2</v>
       </c>
       <c r="B708" s="1">
         <v>1</v>
@@ -10329,7 +10330,7 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>0</v>
+        <v>1.4124924608294899E-2</v>
       </c>
       <c r="B709" s="1">
         <v>1</v>
@@ -10343,7 +10344,7 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>0</v>
+        <v>1.4144901874039899E-2</v>
       </c>
       <c r="B710" s="1">
         <v>1</v>
@@ -10357,7 +10358,7 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>0</v>
+        <v>1.4164879139784901E-2</v>
       </c>
       <c r="B711" s="1">
         <v>1</v>
@@ -10371,7 +10372,7 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>0</v>
+        <v>1.41848564055299E-2</v>
       </c>
       <c r="B712" s="1">
         <v>1</v>
@@ -10385,7 +10386,7 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
-        <v>0</v>
+        <v>1.42048336712749E-2</v>
       </c>
       <c r="B713" s="1">
         <v>1</v>
@@ -10399,7 +10400,7 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>0</v>
+        <v>1.42248109370199E-2</v>
       </c>
       <c r="B714" s="1">
         <v>1</v>
@@ -10413,7 +10414,7 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>0</v>
+        <v>1.4244788202765001E-2</v>
       </c>
       <c r="B715" s="1">
         <v>1</v>
@@ -10427,7 +10428,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>0</v>
+        <v>1.426476546851E-2</v>
       </c>
       <c r="B716" s="1">
         <v>0</v>
@@ -10441,7 +10442,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>0</v>
+        <v>1.4284742734255E-2</v>
       </c>
       <c r="B717" s="1">
         <v>0</v>
@@ -10455,7 +10456,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>0</v>
+        <v>1.430472E-2</v>
       </c>
       <c r="B718" s="1">
         <v>0</v>
@@ -10469,7 +10470,7 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>0</v>
+        <v>1.4324697265745E-2</v>
       </c>
       <c r="B719" s="1">
         <v>0</v>
@@ -10483,7 +10484,7 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>0</v>
+        <v>1.434467453149E-2</v>
       </c>
       <c r="B720" s="1">
         <v>0</v>
@@ -10497,7 +10498,7 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
-        <v>0</v>
+        <v>1.4364651797234999E-2</v>
       </c>
       <c r="B721" s="1">
         <v>0</v>
@@ -10511,7 +10512,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
-        <v>0</v>
+        <v>1.4384629062979999E-2</v>
       </c>
       <c r="B722" s="1">
         <v>0</v>
@@ -10525,7 +10526,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
-        <v>0</v>
+        <v>1.4404606328725001E-2</v>
       </c>
       <c r="B723" s="1">
         <v>0</v>
@@ -10539,7 +10540,7 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
-        <v>0</v>
+        <v>1.4424583594470001E-2</v>
       </c>
       <c r="B724" s="1">
         <v>0</v>
@@ -10553,7 +10554,7 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
-        <v>0</v>
+        <v>1.4444560860215E-2</v>
       </c>
       <c r="B725" s="1">
         <v>0</v>
@@ -10567,7 +10568,7 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
-        <v>0</v>
+        <v>1.446453812596E-2</v>
       </c>
       <c r="B726" s="1">
         <v>0</v>
@@ -10581,7 +10582,7 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
-        <v>0</v>
+        <v>1.4484515391705E-2</v>
       </c>
       <c r="B727" s="1">
         <v>0</v>
@@ -10595,7 +10596,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
-        <v>0</v>
+        <v>1.45044926574501E-2</v>
       </c>
       <c r="B728" s="1">
         <v>0</v>
@@ -10609,7 +10610,7 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
-        <v>0</v>
+        <v>1.45244699231951E-2</v>
       </c>
       <c r="B729" s="1">
         <v>0</v>
@@ -10623,7 +10624,7 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
-        <v>0</v>
+        <v>1.45444471889401E-2</v>
       </c>
       <c r="B730" s="1">
         <v>0</v>
@@ -10637,7 +10638,7 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
-        <v>0</v>
+        <v>1.45644244546851E-2</v>
       </c>
       <c r="B731" s="1">
         <v>0</v>
@@ -10651,7 +10652,7 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
-        <v>0</v>
+        <v>1.45844017204301E-2</v>
       </c>
       <c r="B732" s="1">
         <v>0</v>
@@ -10665,7 +10666,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
-        <v>0</v>
+        <v>1.4604378986175099E-2</v>
       </c>
       <c r="B733" s="1">
         <v>1</v>
@@ -10679,7 +10680,7 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
-        <v>0</v>
+        <v>1.4624356251920099E-2</v>
       </c>
       <c r="B734" s="1">
         <v>1</v>
@@ -10693,7 +10694,7 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>0</v>
+        <v>1.4644333517665101E-2</v>
       </c>
       <c r="B735" s="1">
         <v>1</v>
@@ -10707,7 +10708,7 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>0</v>
+        <v>1.4664310783410101E-2</v>
       </c>
       <c r="B736" s="1">
         <v>1</v>
@@ -10721,7 +10722,7 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>0</v>
+        <v>1.46842880491551E-2</v>
       </c>
       <c r="B737" s="1">
         <v>1</v>
@@ -10735,7 +10736,7 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>0</v>
+        <v>1.47042653149001E-2</v>
       </c>
       <c r="B738" s="1">
         <v>1</v>
@@ -10749,7 +10750,7 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>0</v>
+        <v>1.47242425806451E-2</v>
       </c>
       <c r="B739" s="1">
         <v>1</v>
@@ -10763,7 +10764,7 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
-        <v>0</v>
+        <v>1.47442198463901E-2</v>
       </c>
       <c r="B740" s="1">
         <v>1</v>
@@ -10777,7 +10778,7 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
-        <v>0</v>
+        <v>1.47641971121352E-2</v>
       </c>
       <c r="B741" s="1">
         <v>1</v>
@@ -10791,7 +10792,7 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
-        <v>0</v>
+        <v>1.47841743778802E-2</v>
       </c>
       <c r="B742" s="1">
         <v>1</v>
@@ -10805,7 +10806,7 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
-        <v>0</v>
+        <v>1.48041516436252E-2</v>
       </c>
       <c r="B743" s="1">
         <v>1</v>
@@ -10819,7 +10820,7 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
-        <v>0</v>
+        <v>1.48241289093702E-2</v>
       </c>
       <c r="B744" s="1">
         <v>1</v>
@@ -10833,7 +10834,7 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>0</v>
+        <v>1.4844106175115199E-2</v>
       </c>
       <c r="B745" s="1">
         <v>1</v>
@@ -10847,7 +10848,7 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>0</v>
+        <v>1.4864083440860199E-2</v>
       </c>
       <c r="B746" s="1">
         <v>0</v>
@@ -10861,7 +10862,7 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
-        <v>0</v>
+        <v>1.4884060706605201E-2</v>
       </c>
       <c r="B747" s="1">
         <v>0</v>
@@ -10875,7 +10876,7 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>0</v>
+        <v>1.4904037972350201E-2</v>
       </c>
       <c r="B748" s="1">
         <v>0</v>
@@ -10889,7 +10890,7 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>0</v>
+        <v>1.49240152380952E-2</v>
       </c>
       <c r="B749" s="1">
         <v>0</v>
@@ -10903,7 +10904,7 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
-        <v>0</v>
+        <v>1.49439925038402E-2</v>
       </c>
       <c r="B750" s="1">
         <v>0</v>
@@ -10917,7 +10918,7 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>0</v>
+        <v>1.49639697695852E-2</v>
       </c>
       <c r="B751" s="1">
         <v>0</v>
@@ -10931,7 +10932,7 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>0</v>
+        <v>1.49839470353302E-2</v>
       </c>
       <c r="B752" s="1">
         <v>0</v>
@@ -10945,7 +10946,7 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>0</v>
+        <v>1.50039243010752E-2</v>
       </c>
       <c r="B753" s="1">
         <v>0</v>
@@ -10959,7 +10960,7 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>0</v>
+        <v>1.50239015668203E-2</v>
       </c>
       <c r="B754" s="1">
         <v>0</v>
@@ -10973,7 +10974,7 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>0</v>
+        <v>1.50438788325653E-2</v>
       </c>
       <c r="B755" s="1">
         <v>0</v>
@@ -10987,7 +10988,7 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>0</v>
+        <v>1.50638560983103E-2</v>
       </c>
       <c r="B756" s="1">
         <v>0</v>
@@ -11001,7 +11002,7 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>0</v>
+        <v>1.5083833364055299E-2</v>
       </c>
       <c r="B757" s="1">
         <v>0</v>
@@ -11015,7 +11016,7 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
-        <v>0</v>
+        <v>1.5103810629800299E-2</v>
       </c>
       <c r="B758" s="1">
         <v>0</v>
@@ -11029,7 +11030,7 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
-        <v>0</v>
+        <v>1.5123787895545301E-2</v>
       </c>
       <c r="B759" s="1">
         <v>0</v>
@@ -11043,7 +11044,7 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>0</v>
+        <v>1.5143765161290301E-2</v>
       </c>
       <c r="B760" s="1">
         <v>0</v>
@@ -11057,7 +11058,7 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>0</v>
+        <v>1.51637424270353E-2</v>
       </c>
       <c r="B761" s="1">
         <v>0</v>
@@ -11071,7 +11072,7 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>0</v>
+        <v>1.51837196927803E-2</v>
       </c>
       <c r="B762" s="1">
         <v>1</v>
@@ -11085,7 +11086,7 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
-        <v>0</v>
+        <v>1.52036969585253E-2</v>
       </c>
       <c r="B763" s="1">
         <v>1</v>
@@ -11099,7 +11100,7 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>0</v>
+        <v>1.52236742242703E-2</v>
       </c>
       <c r="B764" s="1">
         <v>1</v>
@@ -11113,7 +11114,7 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>0</v>
+        <v>1.52436514900153E-2</v>
       </c>
       <c r="B765" s="1">
         <v>1</v>
@@ -11127,7 +11128,7 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>0</v>
+        <v>1.5263628755760299E-2</v>
       </c>
       <c r="B766" s="1">
         <v>1</v>
@@ -11141,7 +11142,7 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>0</v>
+        <v>1.52836060215054E-2</v>
       </c>
       <c r="B767" s="1">
         <v>1</v>
@@ -11155,7 +11156,7 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>0</v>
+        <v>1.53035832872504E-2</v>
       </c>
       <c r="B768" s="1">
         <v>1</v>
@@ -11169,7 +11170,7 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>0</v>
+        <v>1.5323560552995399E-2</v>
       </c>
       <c r="B769" s="1">
         <v>1</v>
@@ -11183,7 +11184,7 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>0</v>
+        <v>1.5343537818740399E-2</v>
       </c>
       <c r="B770" s="1">
         <v>1</v>
@@ -11197,7 +11198,7 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>0</v>
+        <v>1.5363515084485401E-2</v>
       </c>
       <c r="B771" s="1">
         <v>1</v>
@@ -11211,7 +11212,7 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>0</v>
+        <v>1.5383492350230401E-2</v>
       </c>
       <c r="B772" s="1">
         <v>1</v>
@@ -11225,7 +11226,7 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>0</v>
+        <v>1.54034696159754E-2</v>
       </c>
       <c r="B773" s="1">
         <v>1</v>
@@ -11239,7 +11240,7 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>0</v>
+        <v>1.54234468817204E-2</v>
       </c>
       <c r="B774" s="1">
         <v>0</v>
@@ -11253,7 +11254,7 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>0</v>
+        <v>1.54434241474654E-2</v>
       </c>
       <c r="B775" s="1">
         <v>0</v>
@@ -11267,7 +11268,7 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>0</v>
+        <v>1.54634014132104E-2</v>
       </c>
       <c r="B776" s="1">
         <v>0</v>
@@ -11281,7 +11282,7 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>0</v>
+        <v>1.54833786789554E-2</v>
       </c>
       <c r="B777" s="1">
         <v>0</v>
@@ -11295,7 +11296,7 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
-        <v>0</v>
+        <v>1.5503355944700399E-2</v>
       </c>
       <c r="B778" s="1">
         <v>0</v>
@@ -11309,7 +11310,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>0</v>
+        <v>1.5523333210445399E-2</v>
       </c>
       <c r="B779" s="1">
         <v>0</v>
@@ -11323,7 +11324,7 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
-        <v>0</v>
+        <v>1.55433104761905E-2</v>
       </c>
       <c r="B780" s="1">
         <v>0</v>
@@ -11337,7 +11338,7 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
-        <v>0</v>
+        <v>1.5563287741935499E-2</v>
       </c>
       <c r="B781" s="1">
         <v>0</v>
@@ -11351,7 +11352,7 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
-        <v>0</v>
+        <v>1.5583265007680499E-2</v>
       </c>
       <c r="B782" s="1">
         <v>1</v>
@@ -11365,7 +11366,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>0</v>
+        <v>1.5603242273425501E-2</v>
       </c>
       <c r="B783" s="1">
         <v>1</v>
@@ -11379,7 +11380,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>0</v>
+        <v>1.5623219539170501E-2</v>
       </c>
       <c r="B784" s="1">
         <v>1</v>
@@ -11393,7 +11394,7 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>0</v>
+        <v>1.56431968049155E-2</v>
       </c>
       <c r="B785" s="1">
         <v>1</v>
@@ -11407,7 +11408,7 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>0</v>
+        <v>1.56631740706605E-2</v>
       </c>
       <c r="B786" s="1">
         <v>1</v>
@@ -11421,7 +11422,7 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
-        <v>0</v>
+        <v>1.56831513364055E-2</v>
       </c>
       <c r="B787" s="1">
         <v>1</v>
@@ -11435,7 +11436,7 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
-        <v>0</v>
+        <v>1.57031286021505E-2</v>
       </c>
       <c r="B788" s="1">
         <v>1</v>
@@ -11449,7 +11450,7 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
-        <v>0</v>
+        <v>1.57231058678955E-2</v>
       </c>
       <c r="B789" s="1">
         <v>1</v>
@@ -11463,7 +11464,7 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
-        <v>0</v>
+        <v>1.5743083133640499E-2</v>
       </c>
       <c r="B790" s="1">
         <v>1</v>
@@ -11477,7 +11478,7 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
-        <v>0</v>
+        <v>1.5763060399385499E-2</v>
       </c>
       <c r="B791" s="1">
         <v>0</v>
@@ -11491,7 +11492,7 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
-        <v>0</v>
+        <v>1.5783037665130499E-2</v>
       </c>
       <c r="B792" s="1">
         <v>0</v>
@@ -11505,7 +11506,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
-        <v>0</v>
+        <v>1.5803014930875599E-2</v>
       </c>
       <c r="B793" s="1">
         <v>0</v>
@@ -11519,7 +11520,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
-        <v>0</v>
+        <v>1.5822992196620599E-2</v>
       </c>
       <c r="B794" s="1">
         <v>0</v>
@@ -11533,7 +11534,7 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
-        <v>0</v>
+        <v>1.5842969462365599E-2</v>
       </c>
       <c r="B795" s="1">
         <v>0</v>
@@ -11547,7 +11548,7 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
-        <v>0</v>
+        <v>1.5862946728110599E-2</v>
       </c>
       <c r="B796" s="1">
         <v>0</v>
@@ -11561,7 +11562,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
-        <v>0</v>
+        <v>1.5882923993855599E-2</v>
       </c>
       <c r="B797" s="1">
         <v>0</v>
@@ -11575,7 +11576,7 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
-        <v>0</v>
+        <v>1.5902901259600598E-2</v>
       </c>
       <c r="B798" s="1">
         <v>0</v>
@@ -11589,7 +11590,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
-        <v>0</v>
+        <v>1.5922878525345598E-2</v>
       </c>
       <c r="B799" s="1">
         <v>0</v>
@@ -11603,7 +11604,7 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>0</v>
+        <v>1.5942855791090602E-2</v>
       </c>
       <c r="B800" s="1">
         <v>0</v>
@@ -11617,7 +11618,7 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
-        <v>0</v>
+        <v>1.5962833056835601E-2</v>
       </c>
       <c r="B801" s="1">
         <v>0</v>
@@ -11631,7 +11632,7 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
-        <v>0</v>
+        <v>1.5982810322580601E-2</v>
       </c>
       <c r="B802" s="1">
         <v>0</v>
@@ -11645,7 +11646,7 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
-        <v>0</v>
+        <v>1.6002787588325601E-2</v>
       </c>
       <c r="B803" s="1">
         <v>0</v>
@@ -11659,7 +11660,7 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
-        <v>0</v>
+        <v>1.6022764854070601E-2</v>
       </c>
       <c r="B804" s="1">
         <v>1</v>
@@ -11673,7 +11674,7 @@
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
-        <v>0</v>
+        <v>1.6042742119815601E-2</v>
       </c>
       <c r="B805" s="1">
         <v>1</v>
@@ -11687,7 +11688,7 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>0</v>
+        <v>1.6062719385560701E-2</v>
       </c>
       <c r="B806" s="1">
         <v>1</v>
@@ -11701,7 +11702,7 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
-        <v>0</v>
+        <v>1.6082696651305701E-2</v>
       </c>
       <c r="B807" s="1">
         <v>1</v>
@@ -11715,7 +11716,7 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
-        <v>0</v>
+        <v>1.6102673917050701E-2</v>
       </c>
       <c r="B808" s="1">
         <v>1</v>
@@ -11729,7 +11730,7 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
-        <v>0</v>
+        <v>1.61226511827957E-2</v>
       </c>
       <c r="B809" s="1">
         <v>1</v>
@@ -11743,7 +11744,7 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>0</v>
+        <v>1.61426284485407E-2</v>
       </c>
       <c r="B810" s="1">
         <v>1</v>
@@ -11757,7 +11758,7 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>0</v>
+        <v>1.61626057142857E-2</v>
       </c>
       <c r="B811" s="1">
         <v>1</v>
@@ -11771,7 +11772,7 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>0</v>
+        <v>1.61825829800307E-2</v>
       </c>
       <c r="B812" s="1">
         <v>1</v>
@@ -11785,7 +11786,7 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>0</v>
+        <v>1.62025602457757E-2</v>
       </c>
       <c r="B813" s="1">
         <v>1</v>
@@ -11799,7 +11800,7 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>0</v>
+        <v>1.6222537511520699E-2</v>
       </c>
       <c r="B814" s="1">
         <v>0</v>
@@ -11813,7 +11814,7 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>0</v>
+        <v>1.6242514777265699E-2</v>
       </c>
       <c r="B815" s="1">
         <v>0</v>
@@ -11827,7 +11828,7 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>0</v>
+        <v>1.6262492043010699E-2</v>
       </c>
       <c r="B816" s="1">
         <v>0</v>
@@ -11841,7 +11842,7 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>0</v>
+        <v>1.6282469308755699E-2</v>
       </c>
       <c r="B817" s="1">
         <v>0</v>
@@ -11855,7 +11856,7 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
-        <v>0</v>
+        <v>1.6302446574500699E-2</v>
       </c>
       <c r="B818" s="1">
         <v>0</v>
@@ -11869,7 +11870,7 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>0</v>
+        <v>1.6322423840245799E-2</v>
       </c>
       <c r="B819" s="1">
         <v>0</v>
@@ -11883,7 +11884,7 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>0</v>
+        <v>1.6342401105990799E-2</v>
       </c>
       <c r="B820" s="1">
         <v>0</v>
@@ -11897,7 +11898,7 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
-        <v>0</v>
+        <v>1.6362378371735799E-2</v>
       </c>
       <c r="B821" s="1">
         <v>0</v>
@@ -11911,7 +11912,7 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
-        <v>0</v>
+        <v>1.6382355637480799E-2</v>
       </c>
       <c r="B822" s="1">
         <v>0</v>
@@ -11925,7 +11926,7 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>0</v>
+        <v>1.6402332903225798E-2</v>
       </c>
       <c r="B823" s="1">
         <v>0</v>
@@ -11939,7 +11940,7 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
-        <v>0</v>
+        <v>1.6422310168970802E-2</v>
       </c>
       <c r="B824" s="1">
         <v>1</v>
@@ -11953,7 +11954,7 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>0</v>
+        <v>1.6442287434715801E-2</v>
       </c>
       <c r="B825" s="1">
         <v>1</v>
@@ -11967,7 +11968,7 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>0</v>
+        <v>1.6462264700460801E-2</v>
       </c>
       <c r="B826" s="1">
         <v>1</v>
@@ -11981,7 +11982,7 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>0</v>
+        <v>1.6482241966205801E-2</v>
       </c>
       <c r="B827" s="1">
         <v>1</v>
@@ -11995,7 +11996,7 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
-        <v>0</v>
+        <v>1.6502219231950801E-2</v>
       </c>
       <c r="B828" s="1">
         <v>1</v>
@@ -12009,7 +12010,7 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
-        <v>0</v>
+        <v>1.6522196497695801E-2</v>
       </c>
       <c r="B829" s="1">
         <v>1</v>
@@ -12023,7 +12024,7 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
-        <v>0</v>
+        <v>1.65421737634408E-2</v>
       </c>
       <c r="B830" s="1">
         <v>1</v>
@@ -12037,7 +12038,7 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
-        <v>0</v>
+        <v>1.65621510291858E-2</v>
       </c>
       <c r="B831" s="1">
         <v>1</v>
@@ -12051,7 +12052,7 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
-        <v>0</v>
+        <v>1.6582128294930901E-2</v>
       </c>
       <c r="B832" s="1">
         <v>1</v>
@@ -12065,7 +12066,7 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
-        <v>0</v>
+        <v>1.66021055606759E-2</v>
       </c>
       <c r="B833" s="1">
         <v>1</v>
@@ -12079,7 +12080,7 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
-        <v>0</v>
+        <v>1.66220828264209E-2</v>
       </c>
       <c r="B834" s="1">
         <v>1</v>
@@ -12093,7 +12094,7 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
-        <v>0</v>
+        <v>1.66420600921659E-2</v>
       </c>
       <c r="B835" s="1">
         <v>1</v>
@@ -12107,7 +12108,7 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
-        <v>0</v>
+        <v>1.66620373579109E-2</v>
       </c>
       <c r="B836" s="1">
         <v>1</v>
@@ -12121,7 +12122,7 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>0</v>
+        <v>1.66820146236559E-2</v>
       </c>
       <c r="B837" s="1">
         <v>1</v>
@@ -12135,7 +12136,7 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
-        <v>0</v>
+        <v>1.67019918894009E-2</v>
       </c>
       <c r="B838" s="1">
         <v>0</v>
@@ -12149,7 +12150,7 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>0</v>
+        <v>1.6721969155145899E-2</v>
       </c>
       <c r="B839" s="1">
         <v>0</v>
@@ -12163,7 +12164,7 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
-        <v>0</v>
+        <v>1.6741946420890899E-2</v>
       </c>
       <c r="B840" s="1">
         <v>0</v>
@@ -12177,7 +12178,7 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
-        <v>0</v>
+        <v>1.6761923686635899E-2</v>
       </c>
       <c r="B841" s="1">
         <v>0</v>
@@ -12191,7 +12192,7 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
-        <v>0</v>
+        <v>1.6781900952380899E-2</v>
       </c>
       <c r="B842" s="1">
         <v>0</v>
@@ -12205,7 +12206,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
-        <v>0</v>
+        <v>1.6801878218125899E-2</v>
       </c>
       <c r="B843" s="1">
         <v>0</v>
@@ -12219,7 +12220,7 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>0</v>
+        <v>1.6821855483870898E-2</v>
       </c>
       <c r="B844" s="1">
         <v>0</v>
@@ -12233,7 +12234,7 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
-        <v>0</v>
+        <v>1.6841832749615999E-2</v>
       </c>
       <c r="B845" s="1">
         <v>0</v>
@@ -12247,7 +12248,7 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
-        <v>0</v>
+        <v>1.6861810015360999E-2</v>
       </c>
       <c r="B846" s="1">
         <v>0</v>
@@ -12261,7 +12262,7 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
-        <v>0</v>
+        <v>1.6881787281105998E-2</v>
       </c>
       <c r="B847" s="1">
         <v>0</v>
@@ -12275,7 +12276,7 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
-        <v>0</v>
+        <v>1.6901764546851002E-2</v>
       </c>
       <c r="B848" s="1">
         <v>0</v>
@@ -12289,7 +12290,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
-        <v>0</v>
+        <v>1.6921741812596001E-2</v>
       </c>
       <c r="B849" s="1">
         <v>0</v>
@@ -12303,7 +12304,7 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
-        <v>0</v>
+        <v>1.6941719078341001E-2</v>
       </c>
       <c r="B850" s="1">
         <v>0</v>
@@ -12317,7 +12318,7 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
-        <v>0</v>
+        <v>1.6961696344086001E-2</v>
       </c>
       <c r="B851" s="1">
         <v>0</v>
@@ -12331,7 +12332,7 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
-        <v>0</v>
+        <v>1.6981673609831001E-2</v>
       </c>
       <c r="B852" s="1">
         <v>0</v>
@@ -12345,7 +12346,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
-        <v>0</v>
+        <v>1.7001650875576001E-2</v>
       </c>
       <c r="B853" s="1">
         <v>0</v>
@@ -12359,7 +12360,7 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
-        <v>0</v>
+        <v>1.7021628141321E-2</v>
       </c>
       <c r="B854" s="1">
         <v>1</v>
@@ -12373,7 +12374,7 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>0</v>
+        <v>1.7041605407066E-2</v>
       </c>
       <c r="B855" s="1">
         <v>1</v>
@@ -12387,7 +12388,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
-        <v>0</v>
+        <v>1.7061582672811E-2</v>
       </c>
       <c r="B856" s="1">
         <v>1</v>
@@ -12401,7 +12402,7 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
-        <v>0</v>
+        <v>1.7081559938556E-2</v>
       </c>
       <c r="B857" s="1">
         <v>1</v>
@@ -12415,7 +12416,7 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
-        <v>0</v>
+        <v>1.71015372043011E-2</v>
       </c>
       <c r="B858" s="1">
         <v>1</v>
@@ -12429,7 +12430,7 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
-        <v>0</v>
+        <v>1.71215144700461E-2</v>
       </c>
       <c r="B859" s="1">
         <v>1</v>
@@ -12443,7 +12444,7 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
-        <v>0</v>
+        <v>1.71414917357911E-2</v>
       </c>
       <c r="B860" s="1">
         <v>1</v>
@@ -12457,7 +12458,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
-        <v>0</v>
+        <v>1.71614690015361E-2</v>
       </c>
       <c r="B861" s="1">
         <v>1</v>
@@ -12471,7 +12472,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
-        <v>0</v>
+        <v>1.71814462672811E-2</v>
       </c>
       <c r="B862" s="1">
         <v>1</v>
@@ -12485,7 +12486,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
-        <v>0</v>
+        <v>1.7201423533026099E-2</v>
       </c>
       <c r="B863" s="1">
         <v>1</v>
@@ -12499,7 +12500,7 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
-        <v>0</v>
+        <v>1.7221400798771099E-2</v>
       </c>
       <c r="B864" s="1">
         <v>1</v>
@@ -12513,7 +12514,7 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
-        <v>0</v>
+        <v>1.7241378064516099E-2</v>
       </c>
       <c r="B865" s="1">
         <v>0</v>
@@ -12527,7 +12528,7 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>0</v>
+        <v>1.7261355330261099E-2</v>
       </c>
       <c r="B866" s="1">
         <v>0</v>
@@ -12541,7 +12542,7 @@
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
-        <v>0</v>
+        <v>1.7281332596006099E-2</v>
       </c>
       <c r="B867" s="1">
         <v>0</v>
@@ -12555,7 +12556,7 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
-        <v>0</v>
+        <v>1.7301309861751098E-2</v>
       </c>
       <c r="B868" s="1">
         <v>0</v>
@@ -12569,7 +12570,7 @@
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
-        <v>0</v>
+        <v>1.7321287127496102E-2</v>
       </c>
       <c r="B869" s="1">
         <v>0</v>
@@ -12583,7 +12584,7 @@
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
-        <v>0</v>
+        <v>1.7341264393241101E-2</v>
       </c>
       <c r="B870" s="1">
         <v>0</v>
@@ -12597,7 +12598,7 @@
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
-        <v>0</v>
+        <v>1.7361241658986198E-2</v>
       </c>
       <c r="B871" s="1">
         <v>0</v>
@@ -12611,7 +12612,7 @@
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
-        <v>0</v>
+        <v>1.7381218924731202E-2</v>
       </c>
       <c r="B872" s="1">
         <v>0</v>
@@ -12625,7 +12626,7 @@
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
-        <v>0</v>
+        <v>1.7401196190476202E-2</v>
       </c>
       <c r="B873" s="1">
         <v>0</v>
@@ -12639,7 +12640,7 @@
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
-        <v>0</v>
+        <v>1.7421173456221201E-2</v>
       </c>
       <c r="B874" s="1">
         <v>0</v>
@@ -12653,7 +12654,7 @@
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
-        <v>0</v>
+        <v>1.7441150721966201E-2</v>
       </c>
       <c r="B875" s="1">
         <v>0</v>
@@ -12667,7 +12668,7 @@
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
-        <v>0</v>
+        <v>1.7461127987711201E-2</v>
       </c>
       <c r="B876" s="1">
         <v>0</v>
@@ -12681,7 +12682,7 @@
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
-        <v>0</v>
+        <v>1.7481105253456201E-2</v>
       </c>
       <c r="B877" s="1">
         <v>1</v>
@@ -12695,7 +12696,7 @@
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
-        <v>0</v>
+        <v>1.7501082519201201E-2</v>
       </c>
       <c r="B878" s="1">
         <v>1</v>
@@ -12709,7 +12710,7 @@
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
-        <v>0</v>
+        <v>1.75210597849462E-2</v>
       </c>
       <c r="B879" s="1">
         <v>1</v>
@@ -12723,7 +12724,7 @@
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
-        <v>0</v>
+        <v>1.75410370506912E-2</v>
       </c>
       <c r="B880" s="1">
         <v>1</v>
@@ -12737,7 +12738,7 @@
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
-        <v>0</v>
+        <v>1.75610143164362E-2</v>
       </c>
       <c r="B881" s="1">
         <v>1</v>
@@ -12751,7 +12752,7 @@
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
-        <v>0</v>
+        <v>1.75809915821812E-2</v>
       </c>
       <c r="B882" s="1">
         <v>1</v>
@@ -12765,7 +12766,7 @@
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
-        <v>0</v>
+        <v>1.76009688479262E-2</v>
       </c>
       <c r="B883" s="1">
         <v>1</v>
@@ -12779,7 +12780,7 @@
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
-        <v>0</v>
+        <v>1.76209461136713E-2</v>
       </c>
       <c r="B884" s="1">
         <v>1</v>
@@ -12793,7 +12794,7 @@
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
-        <v>0</v>
+        <v>1.76409233794163E-2</v>
       </c>
       <c r="B885" s="1">
         <v>1</v>
@@ -12807,7 +12808,7 @@
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
-        <v>0</v>
+        <v>1.76609006451613E-2</v>
       </c>
       <c r="B886" s="1">
         <v>1</v>
@@ -12821,7 +12822,7 @@
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
-        <v>0</v>
+        <v>1.7680877910906299E-2</v>
       </c>
       <c r="B887" s="1">
         <v>0</v>
@@ -12835,7 +12836,7 @@
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
-        <v>0</v>
+        <v>1.7700855176651299E-2</v>
       </c>
       <c r="B888" s="1">
         <v>0</v>
@@ -12849,7 +12850,7 @@
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
-        <v>0</v>
+        <v>1.7720832442396299E-2</v>
       </c>
       <c r="B889" s="1">
         <v>0</v>
@@ -12863,7 +12864,7 @@
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
-        <v>0</v>
+        <v>1.7740809708141299E-2</v>
       </c>
       <c r="B890" s="1">
         <v>0</v>
@@ -12877,7 +12878,7 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
-        <v>0</v>
+        <v>1.7760786973886299E-2</v>
       </c>
       <c r="B891" s="1">
         <v>0</v>
@@ -12891,7 +12892,7 @@
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
-        <v>0</v>
+        <v>1.7780764239631298E-2</v>
       </c>
       <c r="B892" s="1">
         <v>0</v>
@@ -12905,7 +12906,7 @@
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
-        <v>0</v>
+        <v>1.7800741505376302E-2</v>
       </c>
       <c r="B893" s="1">
         <v>0</v>
@@ -12919,7 +12920,7 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
-        <v>0</v>
+        <v>1.7820718771121302E-2</v>
       </c>
       <c r="B894" s="1">
         <v>0</v>
@@ -12933,7 +12934,7 @@
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
-        <v>0</v>
+        <v>1.7840696036866301E-2</v>
       </c>
       <c r="B895" s="1">
         <v>1</v>
@@ -12947,7 +12948,7 @@
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
-        <v>0</v>
+        <v>1.7860673302611301E-2</v>
       </c>
       <c r="B896" s="1">
         <v>1</v>
@@ -12961,7 +12962,7 @@
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
-        <v>0</v>
+        <v>1.7880650568356402E-2</v>
       </c>
       <c r="B897" s="1">
         <v>1</v>
@@ -12975,7 +12976,7 @@
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
-        <v>0</v>
+        <v>1.7900627834101401E-2</v>
       </c>
       <c r="B898" s="1">
         <v>1</v>
@@ -12989,7 +12990,7 @@
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
-        <v>0</v>
+        <v>1.7920605099846401E-2</v>
       </c>
       <c r="B899" s="1">
         <v>1</v>
@@ -13003,7 +13004,7 @@
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
-        <v>0</v>
+        <v>1.7940582365591401E-2</v>
       </c>
       <c r="B900" s="1">
         <v>1</v>
@@ -13017,7 +13018,7 @@
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
-        <v>0</v>
+        <v>1.7960559631336401E-2</v>
       </c>
       <c r="B901" s="1">
         <v>1</v>
@@ -13031,7 +13032,7 @@
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
-        <v>0</v>
+        <v>1.7980536897081401E-2</v>
       </c>
       <c r="B902" s="1">
         <v>1</v>
@@ -13045,7 +13046,7 @@
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
-        <v>0</v>
+        <v>1.80005141628264E-2</v>
       </c>
       <c r="B903" s="1">
         <v>1</v>
@@ -13059,7 +13060,7 @@
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
-        <v>0</v>
+        <v>1.80204914285714E-2</v>
       </c>
       <c r="B904" s="1">
         <v>1</v>
@@ -13073,7 +13074,7 @@
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
-        <v>0</v>
+        <v>1.80404686943164E-2</v>
       </c>
       <c r="B905" s="1">
         <v>0</v>
@@ -13087,7 +13088,7 @@
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
-        <v>0</v>
+        <v>1.80604459600614E-2</v>
       </c>
       <c r="B906" s="1">
         <v>0</v>
@@ -13101,7 +13102,7 @@
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
-        <v>0</v>
+        <v>1.80804232258064E-2</v>
       </c>
       <c r="B907" s="1">
         <v>0</v>
@@ -13115,7 +13116,7 @@
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
-        <v>0</v>
+        <v>1.8100400491551399E-2</v>
       </c>
       <c r="B908" s="1">
         <v>0</v>
@@ -13129,7 +13130,7 @@
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
-        <v>0</v>
+        <v>1.8120377757296399E-2</v>
       </c>
       <c r="B909" s="1">
         <v>0</v>
@@ -13143,7 +13144,7 @@
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
-        <v>0</v>
+        <v>1.81403550230415E-2</v>
       </c>
       <c r="B910" s="1">
         <v>0</v>
@@ -13157,7 +13158,7 @@
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
-        <v>0</v>
+        <v>1.8160332288786499E-2</v>
       </c>
       <c r="B911" s="1">
         <v>0</v>
@@ -13171,7 +13172,7 @@
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
-        <v>0</v>
+        <v>1.8180309554531499E-2</v>
       </c>
       <c r="B912" s="1">
         <v>0</v>
@@ -13185,7 +13186,7 @@
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
-        <v>0</v>
+        <v>1.8200286820276499E-2</v>
       </c>
       <c r="B913" s="1">
         <v>0</v>
@@ -13199,7 +13200,7 @@
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
-        <v>0</v>
+        <v>1.8220264086021499E-2</v>
       </c>
       <c r="B914" s="1">
         <v>0</v>
@@ -13213,7 +13214,7 @@
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
-        <v>0</v>
+        <v>1.8240241351766499E-2</v>
       </c>
       <c r="B915" s="1">
         <v>0</v>
@@ -13227,7 +13228,7 @@
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
-        <v>0</v>
+        <v>1.8260218617511498E-2</v>
       </c>
       <c r="B916" s="1">
         <v>0</v>
@@ -13241,7 +13242,7 @@
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
-        <v>0</v>
+        <v>1.8280195883256498E-2</v>
       </c>
       <c r="B917" s="1">
         <v>0</v>
@@ -13255,7 +13256,7 @@
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
-        <v>0</v>
+        <v>1.8300173149001502E-2</v>
       </c>
       <c r="B918" s="1">
         <v>0</v>
@@ -13269,7 +13270,7 @@
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
-        <v>0</v>
+        <v>1.8320150414746501E-2</v>
       </c>
       <c r="B919" s="1">
         <v>0</v>
@@ -13283,7 +13284,7 @@
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
-        <v>0</v>
+        <v>1.8340127680491501E-2</v>
       </c>
       <c r="B920" s="1">
         <v>1</v>
@@ -13297,7 +13298,7 @@
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
-        <v>0</v>
+        <v>1.8360104946236501E-2</v>
       </c>
       <c r="B921" s="1">
         <v>1</v>
@@ -13311,7 +13312,7 @@
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
-        <v>0</v>
+        <v>1.8380082211981501E-2</v>
       </c>
       <c r="B922" s="1">
         <v>1</v>
@@ -13325,7 +13326,7 @@
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
-        <v>0</v>
+        <v>1.8400059477726601E-2</v>
       </c>
       <c r="B923" s="1">
         <v>1</v>
@@ -13339,7 +13340,7 @@
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
-        <v>0</v>
+        <v>1.8420036743471601E-2</v>
       </c>
       <c r="B924" s="1">
         <v>1</v>
@@ -13353,7 +13354,7 @@
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
-        <v>0</v>
+        <v>1.8440014009216601E-2</v>
       </c>
       <c r="B925" s="1">
         <v>1</v>
@@ -13367,7 +13368,7 @@
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
-        <v>0</v>
+        <v>1.8459991274961601E-2</v>
       </c>
       <c r="B926" s="1">
         <v>1</v>
@@ -13381,7 +13382,7 @@
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
-        <v>0</v>
+        <v>1.84799685407066E-2</v>
       </c>
       <c r="B927" s="1">
         <v>1</v>
@@ -13395,7 +13396,7 @@
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
-        <v>0</v>
+        <v>1.84999458064516E-2</v>
       </c>
       <c r="B928" s="1">
         <v>1</v>
@@ -13409,7 +13410,7 @@
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
-        <v>0</v>
+        <v>1.85199230721966E-2</v>
       </c>
       <c r="B929" s="1">
         <v>1</v>
@@ -13423,7 +13424,7 @@
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
-        <v>0</v>
+        <v>1.85399003379416E-2</v>
       </c>
       <c r="B930" s="1">
         <v>1</v>
@@ -13437,7 +13438,7 @@
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
-        <v>0</v>
+        <v>1.85598776036866E-2</v>
       </c>
       <c r="B931" s="1">
         <v>1</v>
@@ -13451,7 +13452,7 @@
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
-        <v>0</v>
+        <v>1.8579854869431599E-2</v>
       </c>
       <c r="B932" s="1">
         <v>0</v>
@@ -13465,7 +13466,7 @@
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
-        <v>0</v>
+        <v>1.8599832135176599E-2</v>
       </c>
       <c r="B933" s="1">
         <v>0</v>
@@ -13479,7 +13480,7 @@
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
-        <v>0</v>
+        <v>1.8619809400921599E-2</v>
       </c>
       <c r="B934" s="1">
         <v>0</v>
@@ -13493,7 +13494,7 @@
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
-        <v>0</v>
+        <v>1.8639786666666599E-2</v>
       </c>
       <c r="B935" s="1">
         <v>0</v>
@@ -13507,7 +13508,7 @@
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
-        <v>0</v>
+        <v>1.8659763932411699E-2</v>
       </c>
       <c r="B936" s="1">
         <v>0</v>
@@ -13521,7 +13522,7 @@
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
-        <v>0</v>
+        <v>1.8679741198156699E-2</v>
       </c>
       <c r="B937" s="1">
         <v>0</v>
@@ -13535,7 +13536,7 @@
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
-        <v>0</v>
+        <v>1.8699718463901699E-2</v>
       </c>
       <c r="B938" s="1">
         <v>0</v>
@@ -13549,7 +13550,7 @@
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
-        <v>0</v>
+        <v>1.8719695729646699E-2</v>
       </c>
       <c r="B939" s="1">
         <v>0</v>
@@ -13563,7 +13564,7 @@
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
-        <v>0</v>
+        <v>1.8739672995391699E-2</v>
       </c>
       <c r="B940" s="1">
         <v>0</v>
@@ -13577,7 +13578,7 @@
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
-        <v>0</v>
+        <v>1.8759650261136698E-2</v>
       </c>
       <c r="B941" s="1">
         <v>0</v>
@@ -13591,7 +13592,7 @@
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
-        <v>0</v>
+        <v>1.8779627526881702E-2</v>
       </c>
       <c r="B942" s="1">
         <v>0</v>
@@ -13605,7 +13606,7 @@
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
-        <v>0</v>
+        <v>1.8799604792626701E-2</v>
       </c>
       <c r="B943" s="1">
         <v>0</v>
@@ -13619,7 +13620,7 @@
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
-        <v>0</v>
+        <v>1.8819582058371701E-2</v>
       </c>
       <c r="B944" s="1">
         <v>0</v>
@@ -13633,7 +13634,7 @@
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
-        <v>0</v>
+        <v>1.8839559324116701E-2</v>
       </c>
       <c r="B945" s="1">
         <v>1</v>
@@ -13647,7 +13648,7 @@
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
-        <v>0</v>
+        <v>1.8859536589861701E-2</v>
       </c>
       <c r="B946" s="1">
         <v>1</v>
@@ -13661,7 +13662,7 @@
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
-        <v>0</v>
+        <v>1.8879513855606701E-2</v>
       </c>
       <c r="B947" s="1">
         <v>1</v>
@@ -13675,7 +13676,7 @@
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
-        <v>0</v>
+        <v>1.88994911213517E-2</v>
       </c>
       <c r="B948" s="1">
         <v>1</v>
@@ -13689,7 +13690,7 @@
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
-        <v>0</v>
+        <v>1.8919468387096801E-2</v>
       </c>
       <c r="B949" s="1">
         <v>1</v>
@@ -13703,7 +13704,7 @@
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
-        <v>0</v>
+        <v>1.8939445652841801E-2</v>
       </c>
       <c r="B950" s="1">
         <v>1</v>
@@ -13717,7 +13718,7 @@
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
-        <v>0</v>
+        <v>1.89594229185868E-2</v>
       </c>
       <c r="B951" s="1">
         <v>1</v>
@@ -13731,7 +13732,7 @@
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
-        <v>0</v>
+        <v>1.89794001843318E-2</v>
       </c>
       <c r="B952" s="1">
         <v>1</v>
@@ -13745,7 +13746,7 @@
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
-        <v>0</v>
+        <v>1.89993774500768E-2</v>
       </c>
       <c r="B953" s="1">
         <v>1</v>
@@ -13759,7 +13760,7 @@
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
-        <v>0</v>
+        <v>1.90193547158218E-2</v>
       </c>
       <c r="B954" s="1">
         <v>1</v>
@@ -13773,7 +13774,7 @@
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
-        <v>0</v>
+        <v>1.90393319815668E-2</v>
       </c>
       <c r="B955" s="1">
         <v>1</v>
@@ -13787,7 +13788,7 @@
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
-        <v>0</v>
+        <v>1.9059309247311799E-2</v>
       </c>
       <c r="B956" s="1">
         <v>1</v>
@@ -13801,7 +13802,7 @@
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
-        <v>0</v>
+        <v>1.9079286513056799E-2</v>
       </c>
       <c r="B957" s="1">
         <v>1</v>
@@ -13815,7 +13816,7 @@
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
-        <v>0</v>
+        <v>1.9099263778801799E-2</v>
       </c>
       <c r="B958" s="1">
         <v>1</v>
@@ -13829,7 +13830,7 @@
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
-        <v>0</v>
+        <v>1.9119241044546799E-2</v>
       </c>
       <c r="B959" s="1">
         <v>1</v>
@@ -13843,7 +13844,7 @@
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
-        <v>0</v>
+        <v>1.9139218310291799E-2</v>
       </c>
       <c r="B960" s="1">
         <v>1</v>
@@ -13857,7 +13858,7 @@
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
-        <v>0</v>
+        <v>1.9159195576036799E-2</v>
       </c>
       <c r="B961" s="1">
         <v>0</v>
@@ -13871,7 +13872,7 @@
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
-        <v>0</v>
+        <v>1.9179172841781899E-2</v>
       </c>
       <c r="B962" s="1">
         <v>0</v>
@@ -13885,7 +13886,7 @@
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
-        <v>0</v>
+        <v>1.9199150107526899E-2</v>
       </c>
       <c r="B963" s="1">
         <v>0</v>
@@ -13899,7 +13900,7 @@
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
-        <v>0</v>
+        <v>1.9219127373271899E-2</v>
       </c>
       <c r="B964" s="1">
         <v>0</v>
@@ -13913,7 +13914,7 @@
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
-        <v>0</v>
+        <v>1.9239104639016898E-2</v>
       </c>
       <c r="B965" s="1">
         <v>0</v>
@@ -13927,7 +13928,7 @@
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
-        <v>0</v>
+        <v>1.9259081904761902E-2</v>
       </c>
       <c r="B966" s="1">
         <v>0</v>
@@ -13941,7 +13942,7 @@
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
-        <v>0</v>
+        <v>1.9279059170506901E-2</v>
       </c>
       <c r="B967" s="1">
         <v>0</v>
@@ -13955,7 +13956,7 @@
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
-        <v>0</v>
+        <v>1.9299036436251901E-2</v>
       </c>
       <c r="B968" s="1">
         <v>0</v>
@@ -13969,7 +13970,7 @@
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
-        <v>0</v>
+        <v>1.9319013701996901E-2</v>
       </c>
       <c r="B969" s="1">
         <v>0</v>
@@ -13983,7 +13984,7 @@
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
-        <v>0</v>
+        <v>1.9338990967741901E-2</v>
       </c>
       <c r="B970" s="1">
         <v>0</v>
@@ -13997,7 +13998,7 @@
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
-        <v>0</v>
+        <v>1.9358968233486901E-2</v>
       </c>
       <c r="B971" s="1">
         <v>0</v>
@@ -14011,7 +14012,7 @@
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
-        <v>0</v>
+        <v>1.93789454992319E-2</v>
       </c>
       <c r="B972" s="1">
         <v>0</v>
@@ -14025,7 +14026,7 @@
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
-        <v>0</v>
+        <v>1.93989227649769E-2</v>
       </c>
       <c r="B973" s="1">
         <v>0</v>
@@ -14039,7 +14040,7 @@
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
-        <v>0</v>
+        <v>1.94189000307219E-2</v>
       </c>
       <c r="B974" s="1">
         <v>0</v>
@@ -14053,7 +14054,7 @@
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
-        <v>0</v>
+        <v>1.9438877296467E-2</v>
       </c>
       <c r="B975" s="1">
         <v>1</v>
@@ -14067,7 +14068,7 @@
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
-        <v>0</v>
+        <v>1.9458854562212E-2</v>
       </c>
       <c r="B976" s="1">
         <v>1</v>
@@ -14081,7 +14082,7 @@
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
-        <v>0</v>
+        <v>1.9478831827957E-2</v>
       </c>
       <c r="B977" s="1">
         <v>1</v>
@@ -14095,7 +14096,7 @@
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
-        <v>0</v>
+        <v>1.9498809093702E-2</v>
       </c>
       <c r="B978" s="1">
         <v>1</v>
@@ -14109,7 +14110,7 @@
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
-        <v>0</v>
+        <v>1.9518786359447E-2</v>
       </c>
       <c r="B979" s="1">
         <v>1</v>
@@ -14123,7 +14124,7 @@
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
-        <v>0</v>
+        <v>1.9538763625192E-2</v>
       </c>
       <c r="B980" s="1">
         <v>1</v>
@@ -14137,7 +14138,7 @@
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
-        <v>0</v>
+        <v>1.9558740890936999E-2</v>
       </c>
       <c r="B981" s="1">
         <v>1</v>
@@ -14151,7 +14152,7 @@
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
-        <v>0</v>
+        <v>1.9578718156681999E-2</v>
       </c>
       <c r="B982" s="1">
         <v>1</v>
@@ -14165,7 +14166,7 @@
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
-        <v>0</v>
+        <v>1.9598695422426999E-2</v>
       </c>
       <c r="B983" s="1">
         <v>1</v>
@@ -14179,7 +14180,7 @@
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
-        <v>0</v>
+        <v>1.9618672688171999E-2</v>
       </c>
       <c r="B984" s="1">
         <v>1</v>
@@ -14193,7 +14194,7 @@
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
-        <v>0</v>
+        <v>1.9638649953916999E-2</v>
       </c>
       <c r="B985" s="1">
         <v>1</v>
@@ -14207,7 +14208,7 @@
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
-        <v>0</v>
+        <v>1.9658627219661998E-2</v>
       </c>
       <c r="B986" s="1">
         <v>1</v>
@@ -14221,7 +14222,7 @@
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
-        <v>0</v>
+        <v>1.9678604485407002E-2</v>
       </c>
       <c r="B987" s="1">
         <v>1</v>
@@ -14235,7 +14236,7 @@
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
-        <v>0</v>
+        <v>1.9698581751152099E-2</v>
       </c>
       <c r="B988" s="1">
         <v>1</v>
@@ -14249,7 +14250,7 @@
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
-        <v>0</v>
+        <v>1.9718559016897098E-2</v>
       </c>
       <c r="B989" s="1">
         <v>0</v>
@@ -14263,7 +14264,7 @@
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
-        <v>0</v>
+        <v>1.9738536282642102E-2</v>
       </c>
       <c r="B990" s="1">
         <v>0</v>
@@ -14277,7 +14278,7 @@
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
-        <v>0</v>
+        <v>1.9758513548387101E-2</v>
       </c>
       <c r="B991" s="1">
         <v>0</v>
@@ -14291,7 +14292,7 @@
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
-        <v>0</v>
+        <v>1.9778490814132101E-2</v>
       </c>
       <c r="B992" s="1">
         <v>0</v>
@@ -14305,7 +14306,7 @@
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
-        <v>0</v>
+        <v>1.9798468079877101E-2</v>
       </c>
       <c r="B993" s="1">
         <v>0</v>
@@ -14319,7 +14320,7 @@
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994" s="1">
-        <v>0</v>
+        <v>1.9818445345622101E-2</v>
       </c>
       <c r="B994" s="1">
         <v>0</v>
@@ -14333,7 +14334,7 @@
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A995" s="1">
-        <v>0</v>
+        <v>1.9838422611367101E-2</v>
       </c>
       <c r="B995" s="1">
         <v>0</v>
@@ -14347,7 +14348,7 @@
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
-        <v>0</v>
+        <v>1.9858399877112101E-2</v>
       </c>
       <c r="B996" s="1">
         <v>0</v>
@@ -14361,7 +14362,7 @@
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
-        <v>0</v>
+        <v>1.98783771428571E-2</v>
       </c>
       <c r="B997" s="1">
         <v>0</v>
@@ -14375,7 +14376,7 @@
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998" s="1">
-        <v>0</v>
+        <v>1.98983544086021E-2</v>
       </c>
       <c r="B998" s="1">
         <v>0</v>
@@ -14389,7 +14390,7 @@
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
-        <v>0</v>
+        <v>1.99183316743471E-2</v>
       </c>
       <c r="B999" s="1">
         <v>0</v>
@@ -14403,7 +14404,7 @@
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
-        <v>0</v>
+        <v>1.99383089400921E-2</v>
       </c>
       <c r="B1000" s="1">
         <v>0</v>
@@ -14417,7 +14418,7 @@
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
-        <v>0</v>
+        <v>1.99582862058372E-2</v>
       </c>
       <c r="B1001" s="1">
         <v>0</v>
